--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C8B42-BC27-4B0E-9596-C3485BC043E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2A005-4666-4FD4-9287-38C7BB4B13B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="574">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1941,6 +1933,9 @@
   </si>
   <si>
     <t>12/27-29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2640,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K644" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K816" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2974,11 +2969,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L644"/>
+  <dimension ref="A2:L816"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A633" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B643" sqref="B643"/>
+      <pane ySplit="3576" topLeftCell="A636" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K646" sqref="K646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3145,7 +3140,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.978999999999928</v>
+        <v>59.478999999999928</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3155,7 +3150,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.791999999999973</v>
+        <v>46.291999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17372,7 +17367,9 @@
       </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A643" s="40"/>
+      <c r="A643" s="48" t="s">
+        <v>573</v>
+      </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
       <c r="D643" s="39"/>
@@ -17388,20 +17385,3116 @@
       <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A644" s="41"/>
+      <c r="A644" s="41">
+        <v>44927</v>
+      </c>
       <c r="B644" s="15"/>
-      <c r="C644" s="42"/>
+      <c r="C644" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D644" s="43"/>
       <c r="E644" s="50"/>
       <c r="F644" s="15"/>
-      <c r="G644" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G644" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H644" s="43"/>
       <c r="I644" s="50"/>
       <c r="J644" s="12"/>
       <c r="K644" s="15"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A645" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B645" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C645" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D645" s="39"/>
+      <c r="E645" s="9"/>
+      <c r="F645" s="20"/>
+      <c r="G645" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H645" s="39">
+        <v>1</v>
+      </c>
+      <c r="I645" s="9"/>
+      <c r="J645" s="11"/>
+      <c r="K645" s="49">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B646" s="20"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="39"/>
+      <c r="E646" s="9"/>
+      <c r="F646" s="20"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H646" s="39"/>
+      <c r="I646" s="9"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="20"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B647" s="20"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="39"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="20"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="39"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="20"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A648" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="39"/>
+      <c r="E648" s="9"/>
+      <c r="F648" s="20"/>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="39"/>
+      <c r="I648" s="9"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="20"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A649" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B649" s="20"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="39"/>
+      <c r="E649" s="9"/>
+      <c r="F649" s="20"/>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H649" s="39"/>
+      <c r="I649" s="9"/>
+      <c r="J649" s="11"/>
+      <c r="K649" s="20"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A650" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B650" s="20"/>
+      <c r="C650" s="13"/>
+      <c r="D650" s="39"/>
+      <c r="E650" s="9"/>
+      <c r="F650" s="20"/>
+      <c r="G650" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H650" s="39"/>
+      <c r="I650" s="9"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="20"/>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A651" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B651" s="20"/>
+      <c r="C651" s="13"/>
+      <c r="D651" s="39"/>
+      <c r="E651" s="9"/>
+      <c r="F651" s="20"/>
+      <c r="G651" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H651" s="39"/>
+      <c r="I651" s="9"/>
+      <c r="J651" s="11"/>
+      <c r="K651" s="20"/>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A652" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B652" s="20"/>
+      <c r="C652" s="13"/>
+      <c r="D652" s="39"/>
+      <c r="E652" s="9"/>
+      <c r="F652" s="20"/>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H652" s="39"/>
+      <c r="I652" s="9"/>
+      <c r="J652" s="11"/>
+      <c r="K652" s="20"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A653" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B653" s="20"/>
+      <c r="C653" s="13"/>
+      <c r="D653" s="39"/>
+      <c r="E653" s="9"/>
+      <c r="F653" s="20"/>
+      <c r="G653" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H653" s="39"/>
+      <c r="I653" s="9"/>
+      <c r="J653" s="11"/>
+      <c r="K653" s="20"/>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B654" s="20"/>
+      <c r="C654" s="13"/>
+      <c r="D654" s="39"/>
+      <c r="E654" s="9"/>
+      <c r="F654" s="20"/>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H654" s="39"/>
+      <c r="I654" s="9"/>
+      <c r="J654" s="11"/>
+      <c r="K654" s="20"/>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A655" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B655" s="20"/>
+      <c r="C655" s="13"/>
+      <c r="D655" s="39"/>
+      <c r="E655" s="9"/>
+      <c r="F655" s="20"/>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H655" s="39"/>
+      <c r="I655" s="9"/>
+      <c r="J655" s="11"/>
+      <c r="K655" s="20"/>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A656" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B656" s="20"/>
+      <c r="C656" s="13"/>
+      <c r="D656" s="39"/>
+      <c r="E656" s="9"/>
+      <c r="F656" s="20"/>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H656" s="39"/>
+      <c r="I656" s="9"/>
+      <c r="J656" s="11"/>
+      <c r="K656" s="20"/>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A657" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B657" s="20"/>
+      <c r="C657" s="13"/>
+      <c r="D657" s="39"/>
+      <c r="E657" s="9"/>
+      <c r="F657" s="20"/>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H657" s="39"/>
+      <c r="I657" s="9"/>
+      <c r="J657" s="11"/>
+      <c r="K657" s="20"/>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A658" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B658" s="20"/>
+      <c r="C658" s="13"/>
+      <c r="D658" s="39"/>
+      <c r="E658" s="9"/>
+      <c r="F658" s="20"/>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H658" s="39"/>
+      <c r="I658" s="9"/>
+      <c r="J658" s="11"/>
+      <c r="K658" s="20"/>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A659" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B659" s="20"/>
+      <c r="C659" s="13"/>
+      <c r="D659" s="39"/>
+      <c r="E659" s="9"/>
+      <c r="F659" s="20"/>
+      <c r="G659" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H659" s="39"/>
+      <c r="I659" s="9"/>
+      <c r="J659" s="11"/>
+      <c r="K659" s="20"/>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A660" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B660" s="20"/>
+      <c r="C660" s="13"/>
+      <c r="D660" s="39"/>
+      <c r="E660" s="9"/>
+      <c r="F660" s="20"/>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H660" s="39"/>
+      <c r="I660" s="9"/>
+      <c r="J660" s="11"/>
+      <c r="K660" s="20"/>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A661" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B661" s="20"/>
+      <c r="C661" s="13"/>
+      <c r="D661" s="39"/>
+      <c r="E661" s="9"/>
+      <c r="F661" s="20"/>
+      <c r="G661" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H661" s="39"/>
+      <c r="I661" s="9"/>
+      <c r="J661" s="11"/>
+      <c r="K661" s="20"/>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A662" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B662" s="20"/>
+      <c r="C662" s="13"/>
+      <c r="D662" s="39"/>
+      <c r="E662" s="9"/>
+      <c r="F662" s="20"/>
+      <c r="G662" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H662" s="39"/>
+      <c r="I662" s="9"/>
+      <c r="J662" s="11"/>
+      <c r="K662" s="20"/>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A663" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B663" s="20"/>
+      <c r="C663" s="13"/>
+      <c r="D663" s="39"/>
+      <c r="E663" s="9"/>
+      <c r="F663" s="20"/>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H663" s="39"/>
+      <c r="I663" s="9"/>
+      <c r="J663" s="11"/>
+      <c r="K663" s="20"/>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A664" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B664" s="20"/>
+      <c r="C664" s="13"/>
+      <c r="D664" s="39"/>
+      <c r="E664" s="9"/>
+      <c r="F664" s="20"/>
+      <c r="G664" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H664" s="39"/>
+      <c r="I664" s="9"/>
+      <c r="J664" s="11"/>
+      <c r="K664" s="20"/>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A665" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B665" s="20"/>
+      <c r="C665" s="13"/>
+      <c r="D665" s="39"/>
+      <c r="E665" s="9"/>
+      <c r="F665" s="20"/>
+      <c r="G665" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H665" s="39"/>
+      <c r="I665" s="9"/>
+      <c r="J665" s="11"/>
+      <c r="K665" s="20"/>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A666" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B666" s="20"/>
+      <c r="C666" s="13"/>
+      <c r="D666" s="39"/>
+      <c r="E666" s="9"/>
+      <c r="F666" s="20"/>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H666" s="39"/>
+      <c r="I666" s="9"/>
+      <c r="J666" s="11"/>
+      <c r="K666" s="20"/>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A667" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B667" s="20"/>
+      <c r="C667" s="13"/>
+      <c r="D667" s="39"/>
+      <c r="E667" s="9"/>
+      <c r="F667" s="20"/>
+      <c r="G667" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H667" s="39"/>
+      <c r="I667" s="9"/>
+      <c r="J667" s="11"/>
+      <c r="K667" s="20"/>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A668" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B668" s="20"/>
+      <c r="C668" s="13"/>
+      <c r="D668" s="39"/>
+      <c r="E668" s="9"/>
+      <c r="F668" s="20"/>
+      <c r="G668" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H668" s="39"/>
+      <c r="I668" s="9"/>
+      <c r="J668" s="11"/>
+      <c r="K668" s="20"/>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A669" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B669" s="20"/>
+      <c r="C669" s="13"/>
+      <c r="D669" s="39"/>
+      <c r="E669" s="9"/>
+      <c r="F669" s="20"/>
+      <c r="G669" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H669" s="39"/>
+      <c r="I669" s="9"/>
+      <c r="J669" s="11"/>
+      <c r="K669" s="20"/>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A670" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B670" s="20"/>
+      <c r="C670" s="13"/>
+      <c r="D670" s="39"/>
+      <c r="E670" s="9"/>
+      <c r="F670" s="20"/>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H670" s="39"/>
+      <c r="I670" s="9"/>
+      <c r="J670" s="11"/>
+      <c r="K670" s="20"/>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A671" s="40">
+        <v>45748</v>
+      </c>
+      <c r="B671" s="20"/>
+      <c r="C671" s="13"/>
+      <c r="D671" s="39"/>
+      <c r="E671" s="9"/>
+      <c r="F671" s="20"/>
+      <c r="G671" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H671" s="39"/>
+      <c r="I671" s="9"/>
+      <c r="J671" s="11"/>
+      <c r="K671" s="20"/>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A672" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B672" s="20"/>
+      <c r="C672" s="13"/>
+      <c r="D672" s="39"/>
+      <c r="E672" s="9"/>
+      <c r="F672" s="20"/>
+      <c r="G672" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H672" s="39"/>
+      <c r="I672" s="9"/>
+      <c r="J672" s="11"/>
+      <c r="K672" s="20"/>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A673" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B673" s="20"/>
+      <c r="C673" s="13"/>
+      <c r="D673" s="39"/>
+      <c r="E673" s="9"/>
+      <c r="F673" s="20"/>
+      <c r="G673" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H673" s="39"/>
+      <c r="I673" s="9"/>
+      <c r="J673" s="11"/>
+      <c r="K673" s="20"/>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A674" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B674" s="20"/>
+      <c r="C674" s="13"/>
+      <c r="D674" s="39"/>
+      <c r="E674" s="9"/>
+      <c r="F674" s="20"/>
+      <c r="G674" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H674" s="39"/>
+      <c r="I674" s="9"/>
+      <c r="J674" s="11"/>
+      <c r="K674" s="20"/>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A675" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B675" s="20"/>
+      <c r="C675" s="13"/>
+      <c r="D675" s="39"/>
+      <c r="E675" s="9"/>
+      <c r="F675" s="20"/>
+      <c r="G675" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H675" s="39"/>
+      <c r="I675" s="9"/>
+      <c r="J675" s="11"/>
+      <c r="K675" s="20"/>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A676" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B676" s="20"/>
+      <c r="C676" s="13"/>
+      <c r="D676" s="39"/>
+      <c r="E676" s="9"/>
+      <c r="F676" s="20"/>
+      <c r="G676" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H676" s="39"/>
+      <c r="I676" s="9"/>
+      <c r="J676" s="11"/>
+      <c r="K676" s="20"/>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A677" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B677" s="20"/>
+      <c r="C677" s="13"/>
+      <c r="D677" s="39"/>
+      <c r="E677" s="9"/>
+      <c r="F677" s="20"/>
+      <c r="G677" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H677" s="39"/>
+      <c r="I677" s="9"/>
+      <c r="J677" s="11"/>
+      <c r="K677" s="20"/>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A678" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B678" s="20"/>
+      <c r="C678" s="13"/>
+      <c r="D678" s="39"/>
+      <c r="E678" s="9"/>
+      <c r="F678" s="20"/>
+      <c r="G678" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H678" s="39"/>
+      <c r="I678" s="9"/>
+      <c r="J678" s="11"/>
+      <c r="K678" s="20"/>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A679" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B679" s="20"/>
+      <c r="C679" s="13"/>
+      <c r="D679" s="39"/>
+      <c r="E679" s="9"/>
+      <c r="F679" s="20"/>
+      <c r="G679" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H679" s="39"/>
+      <c r="I679" s="9"/>
+      <c r="J679" s="11"/>
+      <c r="K679" s="20"/>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A680" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B680" s="20"/>
+      <c r="C680" s="13"/>
+      <c r="D680" s="39"/>
+      <c r="E680" s="9"/>
+      <c r="F680" s="20"/>
+      <c r="G680" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H680" s="39"/>
+      <c r="I680" s="9"/>
+      <c r="J680" s="11"/>
+      <c r="K680" s="20"/>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A681" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B681" s="20"/>
+      <c r="C681" s="13"/>
+      <c r="D681" s="39"/>
+      <c r="E681" s="9"/>
+      <c r="F681" s="20"/>
+      <c r="G681" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H681" s="39"/>
+      <c r="I681" s="9"/>
+      <c r="J681" s="11"/>
+      <c r="K681" s="20"/>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A682" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B682" s="20"/>
+      <c r="C682" s="13"/>
+      <c r="D682" s="39"/>
+      <c r="E682" s="9"/>
+      <c r="F682" s="20"/>
+      <c r="G682" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H682" s="39"/>
+      <c r="I682" s="9"/>
+      <c r="J682" s="11"/>
+      <c r="K682" s="20"/>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A683" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B683" s="20"/>
+      <c r="C683" s="13"/>
+      <c r="D683" s="39"/>
+      <c r="E683" s="9"/>
+      <c r="F683" s="20"/>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H683" s="39"/>
+      <c r="I683" s="9"/>
+      <c r="J683" s="11"/>
+      <c r="K683" s="20"/>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A684" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B684" s="20"/>
+      <c r="C684" s="13"/>
+      <c r="D684" s="39"/>
+      <c r="E684" s="9"/>
+      <c r="F684" s="20"/>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H684" s="39"/>
+      <c r="I684" s="9"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="20"/>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A685" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B685" s="20"/>
+      <c r="C685" s="13"/>
+      <c r="D685" s="39"/>
+      <c r="E685" s="9"/>
+      <c r="F685" s="20"/>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="39"/>
+      <c r="I685" s="9"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="20"/>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A686" s="40">
+        <v>46204</v>
+      </c>
+      <c r="B686" s="20"/>
+      <c r="C686" s="13"/>
+      <c r="D686" s="39"/>
+      <c r="E686" s="9"/>
+      <c r="F686" s="20"/>
+      <c r="G686" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H686" s="39"/>
+      <c r="I686" s="9"/>
+      <c r="J686" s="11"/>
+      <c r="K686" s="20"/>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A687" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B687" s="20"/>
+      <c r="C687" s="13"/>
+      <c r="D687" s="39"/>
+      <c r="E687" s="9"/>
+      <c r="F687" s="20"/>
+      <c r="G687" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H687" s="39"/>
+      <c r="I687" s="9"/>
+      <c r="J687" s="11"/>
+      <c r="K687" s="20"/>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A688" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B688" s="20"/>
+      <c r="C688" s="13"/>
+      <c r="D688" s="39"/>
+      <c r="E688" s="9"/>
+      <c r="F688" s="20"/>
+      <c r="G688" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H688" s="39"/>
+      <c r="I688" s="9"/>
+      <c r="J688" s="11"/>
+      <c r="K688" s="20"/>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A689" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B689" s="20"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="39"/>
+      <c r="E689" s="9"/>
+      <c r="F689" s="20"/>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H689" s="39"/>
+      <c r="I689" s="9"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="20"/>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A690" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B690" s="20"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="39"/>
+      <c r="E690" s="9"/>
+      <c r="F690" s="20"/>
+      <c r="G690" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H690" s="39"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="20"/>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A691" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B691" s="20"/>
+      <c r="C691" s="13"/>
+      <c r="D691" s="39"/>
+      <c r="E691" s="9"/>
+      <c r="F691" s="20"/>
+      <c r="G691" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H691" s="39"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="11"/>
+      <c r="K691" s="20"/>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A692" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B692" s="20"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="39"/>
+      <c r="E692" s="9"/>
+      <c r="F692" s="20"/>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H692" s="39"/>
+      <c r="I692" s="9"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="20"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A693" s="40">
+        <v>46419</v>
+      </c>
+      <c r="B693" s="20"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="39"/>
+      <c r="E693" s="9"/>
+      <c r="F693" s="20"/>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="39"/>
+      <c r="I693" s="9"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="20"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A694" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B694" s="20"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="39"/>
+      <c r="E694" s="9"/>
+      <c r="F694" s="20"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H694" s="39"/>
+      <c r="I694" s="9"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="20"/>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A695" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B695" s="20"/>
+      <c r="C695" s="13"/>
+      <c r="D695" s="39"/>
+      <c r="E695" s="9"/>
+      <c r="F695" s="20"/>
+      <c r="G695" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H695" s="39"/>
+      <c r="I695" s="9"/>
+      <c r="J695" s="11"/>
+      <c r="K695" s="20"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A696" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B696" s="20"/>
+      <c r="C696" s="13"/>
+      <c r="D696" s="39"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="20"/>
+      <c r="G696" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="39"/>
+      <c r="I696" s="9"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="20"/>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A697" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B697" s="20"/>
+      <c r="C697" s="13"/>
+      <c r="D697" s="39"/>
+      <c r="E697" s="9"/>
+      <c r="F697" s="20"/>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H697" s="39"/>
+      <c r="I697" s="9"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="20"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A698" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="20"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="39"/>
+      <c r="I698" s="9"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A699" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B699" s="20"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="20"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="39"/>
+      <c r="I699" s="9"/>
+      <c r="J699" s="11"/>
+      <c r="K699" s="20"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A700" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B700" s="20"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="39"/>
+      <c r="E700" s="9"/>
+      <c r="F700" s="20"/>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H700" s="39"/>
+      <c r="I700" s="9"/>
+      <c r="J700" s="11"/>
+      <c r="K700" s="20"/>
+    </row>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B701" s="20"/>
+      <c r="C701" s="13"/>
+      <c r="D701" s="39"/>
+      <c r="E701" s="9"/>
+      <c r="F701" s="20"/>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H701" s="39"/>
+      <c r="I701" s="9"/>
+      <c r="J701" s="11"/>
+      <c r="K701" s="20"/>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A702" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B702" s="20"/>
+      <c r="C702" s="13"/>
+      <c r="D702" s="39"/>
+      <c r="E702" s="9"/>
+      <c r="F702" s="20"/>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="39"/>
+      <c r="I702" s="9"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="20"/>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A703" s="40">
+        <v>46722</v>
+      </c>
+      <c r="B703" s="20"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="39"/>
+      <c r="E703" s="9"/>
+      <c r="F703" s="20"/>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H703" s="39"/>
+      <c r="I703" s="9"/>
+      <c r="J703" s="11"/>
+      <c r="K703" s="20"/>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A704" s="40">
+        <v>46753</v>
+      </c>
+      <c r="B704" s="20"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39"/>
+      <c r="E704" s="9"/>
+      <c r="F704" s="20"/>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
+      <c r="I704" s="9"/>
+      <c r="J704" s="11"/>
+      <c r="K704" s="20"/>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A705" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
+      <c r="E705" s="9"/>
+      <c r="F705" s="20"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
+      <c r="I705" s="9"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A707" s="40">
+        <v>46844</v>
+      </c>
+      <c r="B707" s="20"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="20"/>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="39"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="20"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A708" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="20"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="20"/>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A709" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B709" s="20"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="39"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="20"/>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H709" s="39"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="11"/>
+      <c r="K709" s="20"/>
+    </row>
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A710" s="40">
+        <v>46935</v>
+      </c>
+      <c r="B710" s="20"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="39"/>
+      <c r="E710" s="9"/>
+      <c r="F710" s="20"/>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H710" s="39"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="11"/>
+      <c r="K710" s="20"/>
+    </row>
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A711" s="40">
+        <v>46966</v>
+      </c>
+      <c r="B711" s="20"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="39"/>
+      <c r="E711" s="9"/>
+      <c r="F711" s="20"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H711" s="39"/>
+      <c r="I711" s="9"/>
+      <c r="J711" s="11"/>
+      <c r="K711" s="20"/>
+    </row>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A712" s="40">
+        <v>46997</v>
+      </c>
+      <c r="B712" s="20"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39"/>
+      <c r="E712" s="9"/>
+      <c r="F712" s="20"/>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H712" s="39"/>
+      <c r="I712" s="9"/>
+      <c r="J712" s="11"/>
+      <c r="K712" s="20"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A713" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B713" s="20"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39"/>
+      <c r="E713" s="9"/>
+      <c r="F713" s="20"/>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H713" s="39"/>
+      <c r="I713" s="9"/>
+      <c r="J713" s="11"/>
+      <c r="K713" s="20"/>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A714" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B714" s="20"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="39"/>
+      <c r="E714" s="9"/>
+      <c r="F714" s="20"/>
+      <c r="G714" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H714" s="39"/>
+      <c r="I714" s="9"/>
+      <c r="J714" s="11"/>
+      <c r="K714" s="20"/>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A715" s="40">
+        <v>47088</v>
+      </c>
+      <c r="B715" s="20"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39"/>
+      <c r="E715" s="9"/>
+      <c r="F715" s="20"/>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
+      <c r="I715" s="9"/>
+      <c r="J715" s="11"/>
+      <c r="K715" s="20"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A716" s="40">
+        <v>47119</v>
+      </c>
+      <c r="B716" s="20"/>
+      <c r="C716" s="13"/>
+      <c r="D716" s="39"/>
+      <c r="E716" s="9"/>
+      <c r="F716" s="20"/>
+      <c r="G716" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H716" s="39"/>
+      <c r="I716" s="9"/>
+      <c r="J716" s="11"/>
+      <c r="K716" s="20"/>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A717" s="40">
+        <v>47150</v>
+      </c>
+      <c r="B717" s="20"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="39"/>
+      <c r="E717" s="9"/>
+      <c r="F717" s="20"/>
+      <c r="G717" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H717" s="39"/>
+      <c r="I717" s="9"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="20"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A718" s="40">
+        <v>47178</v>
+      </c>
+      <c r="B718" s="20"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="39"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="20"/>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="39"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="20"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A719" s="40">
+        <v>47209</v>
+      </c>
+      <c r="B719" s="20"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="39"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="20"/>
+      <c r="G719" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="39"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="11"/>
+      <c r="K719" s="20"/>
+    </row>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A720" s="40">
+        <v>47239</v>
+      </c>
+      <c r="B720" s="20"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="39"/>
+      <c r="E720" s="9"/>
+      <c r="F720" s="20"/>
+      <c r="G720" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H720" s="39"/>
+      <c r="I720" s="9"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A721" s="40">
+        <v>47270</v>
+      </c>
+      <c r="B721" s="20"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="20"/>
+      <c r="G721" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="39"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20"/>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A722" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A723" s="40">
+        <v>47331</v>
+      </c>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A724" s="40">
+        <v>47362</v>
+      </c>
+      <c r="B724" s="20"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="39"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="20"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="39"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="11"/>
+      <c r="K724" s="20"/>
+    </row>
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A725" s="40">
+        <v>47392</v>
+      </c>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A726" s="40">
+        <v>47423</v>
+      </c>
+      <c r="B726" s="20"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="20"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="11"/>
+      <c r="K726" s="20"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A727" s="40">
+        <v>47453</v>
+      </c>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A728" s="40">
+        <v>47484</v>
+      </c>
+      <c r="B728" s="20"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="9"/>
+      <c r="F728" s="20"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H728" s="39"/>
+      <c r="I728" s="9"/>
+      <c r="J728" s="11"/>
+      <c r="K728" s="20"/>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A729" s="40">
+        <v>47515</v>
+      </c>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="9"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
+      <c r="I729" s="9"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
+    </row>
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A730" s="40">
+        <v>47543</v>
+      </c>
+      <c r="B730" s="20"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="9"/>
+      <c r="F730" s="20"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="39"/>
+      <c r="I730" s="9"/>
+      <c r="J730" s="11"/>
+      <c r="K730" s="20"/>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A731" s="40">
+        <v>47574</v>
+      </c>
+      <c r="B731" s="20"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39"/>
+      <c r="E731" s="9"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
+      <c r="I731" s="9"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="20"/>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A732" s="40">
+        <v>47604</v>
+      </c>
+      <c r="B732" s="20"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="39"/>
+      <c r="E732" s="9"/>
+      <c r="F732" s="20"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H732" s="39"/>
+      <c r="I732" s="9"/>
+      <c r="J732" s="11"/>
+      <c r="K732" s="20"/>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A733" s="40">
+        <v>47635</v>
+      </c>
+      <c r="B733" s="20"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="9"/>
+      <c r="F733" s="20"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H733" s="39"/>
+      <c r="I733" s="9"/>
+      <c r="J733" s="11"/>
+      <c r="K733" s="20"/>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A734" s="40">
+        <v>47665</v>
+      </c>
+      <c r="B734" s="20"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="39"/>
+      <c r="E734" s="9"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H734" s="39"/>
+      <c r="I734" s="9"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="20"/>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A735" s="40">
+        <v>47696</v>
+      </c>
+      <c r="B735" s="20"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="39"/>
+      <c r="E735" s="9"/>
+      <c r="F735" s="20"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H735" s="39"/>
+      <c r="I735" s="9"/>
+      <c r="J735" s="11"/>
+      <c r="K735" s="20"/>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A736" s="40">
+        <v>47727</v>
+      </c>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="9"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
+      <c r="I736" s="9"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A737" s="40">
+        <v>47757</v>
+      </c>
+      <c r="B737" s="20"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="20"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="39"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="11"/>
+      <c r="K737" s="20"/>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A738" s="40">
+        <v>47788</v>
+      </c>
+      <c r="B738" s="20"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="9"/>
+      <c r="F738" s="20"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H738" s="39"/>
+      <c r="I738" s="9"/>
+      <c r="J738" s="11"/>
+      <c r="K738" s="20"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A739" s="40">
+        <v>47818</v>
+      </c>
+      <c r="B739" s="20"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="39"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="20"/>
+      <c r="G739" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H739" s="39"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="11"/>
+      <c r="K739" s="20"/>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A740" s="40">
+        <v>47849</v>
+      </c>
+      <c r="B740" s="20"/>
+      <c r="C740" s="13"/>
+      <c r="D740" s="39"/>
+      <c r="E740" s="9"/>
+      <c r="F740" s="20"/>
+      <c r="G740" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H740" s="39"/>
+      <c r="I740" s="9"/>
+      <c r="J740" s="11"/>
+      <c r="K740" s="20"/>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A741" s="40">
+        <v>47880</v>
+      </c>
+      <c r="B741" s="20"/>
+      <c r="C741" s="13"/>
+      <c r="D741" s="39"/>
+      <c r="E741" s="9"/>
+      <c r="F741" s="20"/>
+      <c r="G741" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H741" s="39"/>
+      <c r="I741" s="9"/>
+      <c r="J741" s="11"/>
+      <c r="K741" s="20"/>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A742" s="40">
+        <v>47908</v>
+      </c>
+      <c r="B742" s="20"/>
+      <c r="C742" s="13"/>
+      <c r="D742" s="39"/>
+      <c r="E742" s="9"/>
+      <c r="F742" s="20"/>
+      <c r="G742" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H742" s="39"/>
+      <c r="I742" s="9"/>
+      <c r="J742" s="11"/>
+      <c r="K742" s="20"/>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A743" s="40">
+        <v>47939</v>
+      </c>
+      <c r="B743" s="20"/>
+      <c r="C743" s="13"/>
+      <c r="D743" s="39"/>
+      <c r="E743" s="9"/>
+      <c r="F743" s="20"/>
+      <c r="G743" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H743" s="39"/>
+      <c r="I743" s="9"/>
+      <c r="J743" s="11"/>
+      <c r="K743" s="20"/>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A744" s="40">
+        <v>47969</v>
+      </c>
+      <c r="B744" s="20"/>
+      <c r="C744" s="13"/>
+      <c r="D744" s="39"/>
+      <c r="E744" s="9"/>
+      <c r="F744" s="20"/>
+      <c r="G744" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H744" s="39"/>
+      <c r="I744" s="9"/>
+      <c r="J744" s="11"/>
+      <c r="K744" s="20"/>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A745" s="40">
+        <v>48000</v>
+      </c>
+      <c r="B745" s="20"/>
+      <c r="C745" s="13"/>
+      <c r="D745" s="39"/>
+      <c r="E745" s="9"/>
+      <c r="F745" s="20"/>
+      <c r="G745" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H745" s="39"/>
+      <c r="I745" s="9"/>
+      <c r="J745" s="11"/>
+      <c r="K745" s="20"/>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A746" s="40">
+        <v>48030</v>
+      </c>
+      <c r="B746" s="20"/>
+      <c r="C746" s="13"/>
+      <c r="D746" s="39"/>
+      <c r="E746" s="9"/>
+      <c r="F746" s="20"/>
+      <c r="G746" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H746" s="39"/>
+      <c r="I746" s="9"/>
+      <c r="J746" s="11"/>
+      <c r="K746" s="20"/>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A747" s="40">
+        <v>48061</v>
+      </c>
+      <c r="B747" s="20"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="39"/>
+      <c r="E747" s="9"/>
+      <c r="F747" s="20"/>
+      <c r="G747" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H747" s="39"/>
+      <c r="I747" s="9"/>
+      <c r="J747" s="11"/>
+      <c r="K747" s="20"/>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A748" s="40">
+        <v>48092</v>
+      </c>
+      <c r="B748" s="20"/>
+      <c r="C748" s="13"/>
+      <c r="D748" s="39"/>
+      <c r="E748" s="9"/>
+      <c r="F748" s="20"/>
+      <c r="G748" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H748" s="39"/>
+      <c r="I748" s="9"/>
+      <c r="J748" s="11"/>
+      <c r="K748" s="20"/>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A749" s="40">
+        <v>48122</v>
+      </c>
+      <c r="B749" s="20"/>
+      <c r="C749" s="13"/>
+      <c r="D749" s="39"/>
+      <c r="E749" s="9"/>
+      <c r="F749" s="20"/>
+      <c r="G749" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H749" s="39"/>
+      <c r="I749" s="9"/>
+      <c r="J749" s="11"/>
+      <c r="K749" s="20"/>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A750" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B750" s="20"/>
+      <c r="C750" s="13"/>
+      <c r="D750" s="39"/>
+      <c r="E750" s="9"/>
+      <c r="F750" s="20"/>
+      <c r="G750" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H750" s="39"/>
+      <c r="I750" s="9"/>
+      <c r="J750" s="11"/>
+      <c r="K750" s="20"/>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A751" s="40">
+        <v>48183</v>
+      </c>
+      <c r="B751" s="20"/>
+      <c r="C751" s="13"/>
+      <c r="D751" s="39"/>
+      <c r="E751" s="9"/>
+      <c r="F751" s="20"/>
+      <c r="G751" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H751" s="39"/>
+      <c r="I751" s="9"/>
+      <c r="J751" s="11"/>
+      <c r="K751" s="20"/>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A752" s="40">
+        <v>48214</v>
+      </c>
+      <c r="B752" s="20"/>
+      <c r="C752" s="13"/>
+      <c r="D752" s="39"/>
+      <c r="E752" s="9"/>
+      <c r="F752" s="20"/>
+      <c r="G752" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H752" s="39"/>
+      <c r="I752" s="9"/>
+      <c r="J752" s="11"/>
+      <c r="K752" s="20"/>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A753" s="40">
+        <v>48245</v>
+      </c>
+      <c r="B753" s="20"/>
+      <c r="C753" s="13"/>
+      <c r="D753" s="39"/>
+      <c r="E753" s="9"/>
+      <c r="F753" s="20"/>
+      <c r="G753" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H753" s="39"/>
+      <c r="I753" s="9"/>
+      <c r="J753" s="11"/>
+      <c r="K753" s="20"/>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A754" s="40">
+        <v>48274</v>
+      </c>
+      <c r="B754" s="20"/>
+      <c r="C754" s="13"/>
+      <c r="D754" s="39"/>
+      <c r="E754" s="9"/>
+      <c r="F754" s="20"/>
+      <c r="G754" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H754" s="39"/>
+      <c r="I754" s="9"/>
+      <c r="J754" s="11"/>
+      <c r="K754" s="20"/>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A755" s="40">
+        <v>48305</v>
+      </c>
+      <c r="B755" s="20"/>
+      <c r="C755" s="13"/>
+      <c r="D755" s="39"/>
+      <c r="E755" s="9"/>
+      <c r="F755" s="20"/>
+      <c r="G755" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H755" s="39"/>
+      <c r="I755" s="9"/>
+      <c r="J755" s="11"/>
+      <c r="K755" s="20"/>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A756" s="40">
+        <v>48335</v>
+      </c>
+      <c r="B756" s="20"/>
+      <c r="C756" s="13"/>
+      <c r="D756" s="39"/>
+      <c r="E756" s="9"/>
+      <c r="F756" s="20"/>
+      <c r="G756" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H756" s="39"/>
+      <c r="I756" s="9"/>
+      <c r="J756" s="11"/>
+      <c r="K756" s="20"/>
+    </row>
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A757" s="40">
+        <v>48366</v>
+      </c>
+      <c r="B757" s="20"/>
+      <c r="C757" s="13"/>
+      <c r="D757" s="39"/>
+      <c r="E757" s="9"/>
+      <c r="F757" s="20"/>
+      <c r="G757" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H757" s="39"/>
+      <c r="I757" s="9"/>
+      <c r="J757" s="11"/>
+      <c r="K757" s="20"/>
+    </row>
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A758" s="40">
+        <v>48396</v>
+      </c>
+      <c r="B758" s="20"/>
+      <c r="C758" s="13"/>
+      <c r="D758" s="39"/>
+      <c r="E758" s="9"/>
+      <c r="F758" s="20"/>
+      <c r="G758" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H758" s="39"/>
+      <c r="I758" s="9"/>
+      <c r="J758" s="11"/>
+      <c r="K758" s="20"/>
+    </row>
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A759" s="40">
+        <v>48427</v>
+      </c>
+      <c r="B759" s="20"/>
+      <c r="C759" s="13"/>
+      <c r="D759" s="39"/>
+      <c r="E759" s="9"/>
+      <c r="F759" s="20"/>
+      <c r="G759" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H759" s="39"/>
+      <c r="I759" s="9"/>
+      <c r="J759" s="11"/>
+      <c r="K759" s="20"/>
+    </row>
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A760" s="40">
+        <v>48458</v>
+      </c>
+      <c r="B760" s="20"/>
+      <c r="C760" s="13"/>
+      <c r="D760" s="39"/>
+      <c r="E760" s="9"/>
+      <c r="F760" s="20"/>
+      <c r="G760" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H760" s="39"/>
+      <c r="I760" s="9"/>
+      <c r="J760" s="11"/>
+      <c r="K760" s="20"/>
+    </row>
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A761" s="40">
+        <v>48488</v>
+      </c>
+      <c r="B761" s="20"/>
+      <c r="C761" s="13"/>
+      <c r="D761" s="39"/>
+      <c r="E761" s="9"/>
+      <c r="F761" s="20"/>
+      <c r="G761" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H761" s="39"/>
+      <c r="I761" s="9"/>
+      <c r="J761" s="11"/>
+      <c r="K761" s="20"/>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A762" s="40">
+        <v>48519</v>
+      </c>
+      <c r="B762" s="20"/>
+      <c r="C762" s="13"/>
+      <c r="D762" s="39"/>
+      <c r="E762" s="9"/>
+      <c r="F762" s="20"/>
+      <c r="G762" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H762" s="39"/>
+      <c r="I762" s="9"/>
+      <c r="J762" s="11"/>
+      <c r="K762" s="20"/>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A763" s="40">
+        <v>48549</v>
+      </c>
+      <c r="B763" s="20"/>
+      <c r="C763" s="13"/>
+      <c r="D763" s="39"/>
+      <c r="E763" s="9"/>
+      <c r="F763" s="20"/>
+      <c r="G763" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H763" s="39"/>
+      <c r="I763" s="9"/>
+      <c r="J763" s="11"/>
+      <c r="K763" s="20"/>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A764" s="40">
+        <v>48580</v>
+      </c>
+      <c r="B764" s="20"/>
+      <c r="C764" s="13"/>
+      <c r="D764" s="39"/>
+      <c r="E764" s="9"/>
+      <c r="F764" s="20"/>
+      <c r="G764" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H764" s="39"/>
+      <c r="I764" s="9"/>
+      <c r="J764" s="11"/>
+      <c r="K764" s="20"/>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A765" s="40">
+        <v>48611</v>
+      </c>
+      <c r="B765" s="20"/>
+      <c r="C765" s="13"/>
+      <c r="D765" s="39"/>
+      <c r="E765" s="9"/>
+      <c r="F765" s="20"/>
+      <c r="G765" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H765" s="39"/>
+      <c r="I765" s="9"/>
+      <c r="J765" s="11"/>
+      <c r="K765" s="20"/>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A766" s="40">
+        <v>48639</v>
+      </c>
+      <c r="B766" s="20"/>
+      <c r="C766" s="13"/>
+      <c r="D766" s="39"/>
+      <c r="E766" s="9"/>
+      <c r="F766" s="20"/>
+      <c r="G766" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H766" s="39"/>
+      <c r="I766" s="9"/>
+      <c r="J766" s="11"/>
+      <c r="K766" s="20"/>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A767" s="40">
+        <v>48670</v>
+      </c>
+      <c r="B767" s="20"/>
+      <c r="C767" s="13"/>
+      <c r="D767" s="39"/>
+      <c r="E767" s="9"/>
+      <c r="F767" s="20"/>
+      <c r="G767" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H767" s="39"/>
+      <c r="I767" s="9"/>
+      <c r="J767" s="11"/>
+      <c r="K767" s="20"/>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A768" s="40">
+        <v>48700</v>
+      </c>
+      <c r="B768" s="20"/>
+      <c r="C768" s="13"/>
+      <c r="D768" s="39"/>
+      <c r="E768" s="9"/>
+      <c r="F768" s="20"/>
+      <c r="G768" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H768" s="39"/>
+      <c r="I768" s="9"/>
+      <c r="J768" s="11"/>
+      <c r="K768" s="20"/>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A769" s="40">
+        <v>48731</v>
+      </c>
+      <c r="B769" s="20"/>
+      <c r="C769" s="13"/>
+      <c r="D769" s="39"/>
+      <c r="E769" s="9"/>
+      <c r="F769" s="20"/>
+      <c r="G769" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H769" s="39"/>
+      <c r="I769" s="9"/>
+      <c r="J769" s="11"/>
+      <c r="K769" s="20"/>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A770" s="40">
+        <v>48761</v>
+      </c>
+      <c r="B770" s="20"/>
+      <c r="C770" s="13"/>
+      <c r="D770" s="39"/>
+      <c r="E770" s="9"/>
+      <c r="F770" s="20"/>
+      <c r="G770" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H770" s="39"/>
+      <c r="I770" s="9"/>
+      <c r="J770" s="11"/>
+      <c r="K770" s="20"/>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A771" s="40">
+        <v>48792</v>
+      </c>
+      <c r="B771" s="20"/>
+      <c r="C771" s="13"/>
+      <c r="D771" s="39"/>
+      <c r="E771" s="9"/>
+      <c r="F771" s="20"/>
+      <c r="G771" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H771" s="39"/>
+      <c r="I771" s="9"/>
+      <c r="J771" s="11"/>
+      <c r="K771" s="20"/>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A772" s="40">
+        <v>48823</v>
+      </c>
+      <c r="B772" s="20"/>
+      <c r="C772" s="13"/>
+      <c r="D772" s="39"/>
+      <c r="E772" s="9"/>
+      <c r="F772" s="20"/>
+      <c r="G772" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H772" s="39"/>
+      <c r="I772" s="9"/>
+      <c r="J772" s="11"/>
+      <c r="K772" s="20"/>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A773" s="40">
+        <v>48853</v>
+      </c>
+      <c r="B773" s="20"/>
+      <c r="C773" s="13"/>
+      <c r="D773" s="39"/>
+      <c r="E773" s="9"/>
+      <c r="F773" s="20"/>
+      <c r="G773" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H773" s="39"/>
+      <c r="I773" s="9"/>
+      <c r="J773" s="11"/>
+      <c r="K773" s="20"/>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A774" s="40">
+        <v>48884</v>
+      </c>
+      <c r="B774" s="20"/>
+      <c r="C774" s="13"/>
+      <c r="D774" s="39"/>
+      <c r="E774" s="9"/>
+      <c r="F774" s="20"/>
+      <c r="G774" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H774" s="39"/>
+      <c r="I774" s="9"/>
+      <c r="J774" s="11"/>
+      <c r="K774" s="20"/>
+    </row>
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A775" s="40">
+        <v>48914</v>
+      </c>
+      <c r="B775" s="20"/>
+      <c r="C775" s="13"/>
+      <c r="D775" s="39"/>
+      <c r="E775" s="9"/>
+      <c r="F775" s="20"/>
+      <c r="G775" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H775" s="39"/>
+      <c r="I775" s="9"/>
+      <c r="J775" s="11"/>
+      <c r="K775" s="20"/>
+    </row>
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A776" s="40">
+        <v>48945</v>
+      </c>
+      <c r="B776" s="20"/>
+      <c r="C776" s="13"/>
+      <c r="D776" s="39"/>
+      <c r="E776" s="9"/>
+      <c r="F776" s="20"/>
+      <c r="G776" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H776" s="39"/>
+      <c r="I776" s="9"/>
+      <c r="J776" s="11"/>
+      <c r="K776" s="20"/>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A777" s="40">
+        <v>48976</v>
+      </c>
+      <c r="B777" s="20"/>
+      <c r="C777" s="13"/>
+      <c r="D777" s="39"/>
+      <c r="E777" s="9"/>
+      <c r="F777" s="20"/>
+      <c r="G777" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H777" s="39"/>
+      <c r="I777" s="9"/>
+      <c r="J777" s="11"/>
+      <c r="K777" s="20"/>
+    </row>
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A778" s="40">
+        <v>49004</v>
+      </c>
+      <c r="B778" s="20"/>
+      <c r="C778" s="13"/>
+      <c r="D778" s="39"/>
+      <c r="E778" s="9"/>
+      <c r="F778" s="20"/>
+      <c r="G778" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H778" s="39"/>
+      <c r="I778" s="9"/>
+      <c r="J778" s="11"/>
+      <c r="K778" s="20"/>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A779" s="40">
+        <v>49035</v>
+      </c>
+      <c r="B779" s="20"/>
+      <c r="C779" s="13"/>
+      <c r="D779" s="39"/>
+      <c r="E779" s="9"/>
+      <c r="F779" s="20"/>
+      <c r="G779" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H779" s="39"/>
+      <c r="I779" s="9"/>
+      <c r="J779" s="11"/>
+      <c r="K779" s="20"/>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A780" s="40">
+        <v>49065</v>
+      </c>
+      <c r="B780" s="20"/>
+      <c r="C780" s="13"/>
+      <c r="D780" s="39"/>
+      <c r="E780" s="9"/>
+      <c r="F780" s="20"/>
+      <c r="G780" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H780" s="39"/>
+      <c r="I780" s="9"/>
+      <c r="J780" s="11"/>
+      <c r="K780" s="20"/>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A781" s="40">
+        <v>49096</v>
+      </c>
+      <c r="B781" s="20"/>
+      <c r="C781" s="13"/>
+      <c r="D781" s="39"/>
+      <c r="E781" s="9"/>
+      <c r="F781" s="20"/>
+      <c r="G781" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H781" s="39"/>
+      <c r="I781" s="9"/>
+      <c r="J781" s="11"/>
+      <c r="K781" s="20"/>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A782" s="40">
+        <v>49126</v>
+      </c>
+      <c r="B782" s="20"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="39"/>
+      <c r="E782" s="9"/>
+      <c r="F782" s="20"/>
+      <c r="G782" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H782" s="39"/>
+      <c r="I782" s="9"/>
+      <c r="J782" s="11"/>
+      <c r="K782" s="20"/>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A783" s="40">
+        <v>49157</v>
+      </c>
+      <c r="B783" s="20"/>
+      <c r="C783" s="13"/>
+      <c r="D783" s="39"/>
+      <c r="E783" s="9"/>
+      <c r="F783" s="20"/>
+      <c r="G783" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H783" s="39"/>
+      <c r="I783" s="9"/>
+      <c r="J783" s="11"/>
+      <c r="K783" s="20"/>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A784" s="40">
+        <v>49188</v>
+      </c>
+      <c r="B784" s="20"/>
+      <c r="C784" s="13"/>
+      <c r="D784" s="39"/>
+      <c r="E784" s="9"/>
+      <c r="F784" s="20"/>
+      <c r="G784" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H784" s="39"/>
+      <c r="I784" s="9"/>
+      <c r="J784" s="11"/>
+      <c r="K784" s="20"/>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A785" s="40">
+        <v>49218</v>
+      </c>
+      <c r="B785" s="20"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="39"/>
+      <c r="E785" s="9"/>
+      <c r="F785" s="20"/>
+      <c r="G785" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H785" s="39"/>
+      <c r="I785" s="9"/>
+      <c r="J785" s="11"/>
+      <c r="K785" s="20"/>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A786" s="40">
+        <v>49249</v>
+      </c>
+      <c r="B786" s="20"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="39"/>
+      <c r="E786" s="9"/>
+      <c r="F786" s="20"/>
+      <c r="G786" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H786" s="39"/>
+      <c r="I786" s="9"/>
+      <c r="J786" s="11"/>
+      <c r="K786" s="20"/>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A787" s="40">
+        <v>49279</v>
+      </c>
+      <c r="B787" s="20"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="39"/>
+      <c r="E787" s="9"/>
+      <c r="F787" s="20"/>
+      <c r="G787" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H787" s="39"/>
+      <c r="I787" s="9"/>
+      <c r="J787" s="11"/>
+      <c r="K787" s="20"/>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A788" s="40">
+        <v>49310</v>
+      </c>
+      <c r="B788" s="20"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="39"/>
+      <c r="E788" s="9"/>
+      <c r="F788" s="20"/>
+      <c r="G788" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H788" s="39"/>
+      <c r="I788" s="9"/>
+      <c r="J788" s="11"/>
+      <c r="K788" s="20"/>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A789" s="40">
+        <v>49341</v>
+      </c>
+      <c r="B789" s="20"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="39"/>
+      <c r="E789" s="9"/>
+      <c r="F789" s="20"/>
+      <c r="G789" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H789" s="39"/>
+      <c r="I789" s="9"/>
+      <c r="J789" s="11"/>
+      <c r="K789" s="20"/>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A790" s="40">
+        <v>49369</v>
+      </c>
+      <c r="B790" s="20"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="39"/>
+      <c r="E790" s="9"/>
+      <c r="F790" s="20"/>
+      <c r="G790" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H790" s="39"/>
+      <c r="I790" s="9"/>
+      <c r="J790" s="11"/>
+      <c r="K790" s="20"/>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A791" s="40">
+        <v>49400</v>
+      </c>
+      <c r="B791" s="20"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="39"/>
+      <c r="E791" s="9"/>
+      <c r="F791" s="20"/>
+      <c r="G791" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H791" s="39"/>
+      <c r="I791" s="9"/>
+      <c r="J791" s="11"/>
+      <c r="K791" s="20"/>
+    </row>
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A792" s="40">
+        <v>49430</v>
+      </c>
+      <c r="B792" s="20"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="39"/>
+      <c r="E792" s="9"/>
+      <c r="F792" s="20"/>
+      <c r="G792" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H792" s="39"/>
+      <c r="I792" s="9"/>
+      <c r="J792" s="11"/>
+      <c r="K792" s="20"/>
+    </row>
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A793" s="40">
+        <v>49461</v>
+      </c>
+      <c r="B793" s="20"/>
+      <c r="C793" s="13"/>
+      <c r="D793" s="39"/>
+      <c r="E793" s="9"/>
+      <c r="F793" s="20"/>
+      <c r="G793" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H793" s="39"/>
+      <c r="I793" s="9"/>
+      <c r="J793" s="11"/>
+      <c r="K793" s="20"/>
+    </row>
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A794" s="40">
+        <v>49491</v>
+      </c>
+      <c r="B794" s="20"/>
+      <c r="C794" s="13"/>
+      <c r="D794" s="39"/>
+      <c r="E794" s="9"/>
+      <c r="F794" s="20"/>
+      <c r="G794" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H794" s="39"/>
+      <c r="I794" s="9"/>
+      <c r="J794" s="11"/>
+      <c r="K794" s="20"/>
+    </row>
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A795" s="40">
+        <v>49522</v>
+      </c>
+      <c r="B795" s="20"/>
+      <c r="C795" s="13"/>
+      <c r="D795" s="39"/>
+      <c r="E795" s="9"/>
+      <c r="F795" s="20"/>
+      <c r="G795" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H795" s="39"/>
+      <c r="I795" s="9"/>
+      <c r="J795" s="11"/>
+      <c r="K795" s="20"/>
+    </row>
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A796" s="40">
+        <v>49553</v>
+      </c>
+      <c r="B796" s="20"/>
+      <c r="C796" s="13"/>
+      <c r="D796" s="39"/>
+      <c r="E796" s="9"/>
+      <c r="F796" s="20"/>
+      <c r="G796" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H796" s="39"/>
+      <c r="I796" s="9"/>
+      <c r="J796" s="11"/>
+      <c r="K796" s="20"/>
+    </row>
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A797" s="40">
+        <v>49583</v>
+      </c>
+      <c r="B797" s="20"/>
+      <c r="C797" s="13"/>
+      <c r="D797" s="39"/>
+      <c r="E797" s="9"/>
+      <c r="F797" s="20"/>
+      <c r="G797" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H797" s="39"/>
+      <c r="I797" s="9"/>
+      <c r="J797" s="11"/>
+      <c r="K797" s="20"/>
+    </row>
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A798" s="40">
+        <v>49614</v>
+      </c>
+      <c r="B798" s="20"/>
+      <c r="C798" s="13"/>
+      <c r="D798" s="39"/>
+      <c r="E798" s="9"/>
+      <c r="F798" s="20"/>
+      <c r="G798" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H798" s="39"/>
+      <c r="I798" s="9"/>
+      <c r="J798" s="11"/>
+      <c r="K798" s="20"/>
+    </row>
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A799" s="40">
+        <v>49644</v>
+      </c>
+      <c r="B799" s="20"/>
+      <c r="C799" s="13"/>
+      <c r="D799" s="39"/>
+      <c r="E799" s="9"/>
+      <c r="F799" s="20"/>
+      <c r="G799" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H799" s="39"/>
+      <c r="I799" s="9"/>
+      <c r="J799" s="11"/>
+      <c r="K799" s="20"/>
+    </row>
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A800" s="40">
+        <v>49675</v>
+      </c>
+      <c r="B800" s="20"/>
+      <c r="C800" s="13"/>
+      <c r="D800" s="39"/>
+      <c r="E800" s="9"/>
+      <c r="F800" s="20"/>
+      <c r="G800" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H800" s="39"/>
+      <c r="I800" s="9"/>
+      <c r="J800" s="11"/>
+      <c r="K800" s="20"/>
+    </row>
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A801" s="40">
+        <v>49706</v>
+      </c>
+      <c r="B801" s="20"/>
+      <c r="C801" s="13"/>
+      <c r="D801" s="39"/>
+      <c r="E801" s="9"/>
+      <c r="F801" s="20"/>
+      <c r="G801" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H801" s="39"/>
+      <c r="I801" s="9"/>
+      <c r="J801" s="11"/>
+      <c r="K801" s="20"/>
+    </row>
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A802" s="40">
+        <v>49735</v>
+      </c>
+      <c r="B802" s="20"/>
+      <c r="C802" s="13"/>
+      <c r="D802" s="39"/>
+      <c r="E802" s="9"/>
+      <c r="F802" s="20"/>
+      <c r="G802" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H802" s="39"/>
+      <c r="I802" s="9"/>
+      <c r="J802" s="11"/>
+      <c r="K802" s="20"/>
+    </row>
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A803" s="40">
+        <v>49766</v>
+      </c>
+      <c r="B803" s="20"/>
+      <c r="C803" s="13"/>
+      <c r="D803" s="39"/>
+      <c r="E803" s="9"/>
+      <c r="F803" s="20"/>
+      <c r="G803" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H803" s="39"/>
+      <c r="I803" s="9"/>
+      <c r="J803" s="11"/>
+      <c r="K803" s="20"/>
+    </row>
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A804" s="40">
+        <v>49796</v>
+      </c>
+      <c r="B804" s="20"/>
+      <c r="C804" s="13"/>
+      <c r="D804" s="39"/>
+      <c r="E804" s="9"/>
+      <c r="F804" s="20"/>
+      <c r="G804" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H804" s="39"/>
+      <c r="I804" s="9"/>
+      <c r="J804" s="11"/>
+      <c r="K804" s="20"/>
+    </row>
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A805" s="40">
+        <v>49827</v>
+      </c>
+      <c r="B805" s="20"/>
+      <c r="C805" s="13"/>
+      <c r="D805" s="39"/>
+      <c r="E805" s="9"/>
+      <c r="F805" s="20"/>
+      <c r="G805" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H805" s="39"/>
+      <c r="I805" s="9"/>
+      <c r="J805" s="11"/>
+      <c r="K805" s="20"/>
+    </row>
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A806" s="40">
+        <v>49857</v>
+      </c>
+      <c r="B806" s="20"/>
+      <c r="C806" s="13"/>
+      <c r="D806" s="39"/>
+      <c r="E806" s="9"/>
+      <c r="F806" s="20"/>
+      <c r="G806" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H806" s="39"/>
+      <c r="I806" s="9"/>
+      <c r="J806" s="11"/>
+      <c r="K806" s="20"/>
+    </row>
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A807" s="40">
+        <v>49888</v>
+      </c>
+      <c r="B807" s="20"/>
+      <c r="C807" s="13"/>
+      <c r="D807" s="39"/>
+      <c r="E807" s="9"/>
+      <c r="F807" s="20"/>
+      <c r="G807" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H807" s="39"/>
+      <c r="I807" s="9"/>
+      <c r="J807" s="11"/>
+      <c r="K807" s="20"/>
+    </row>
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A808" s="40">
+        <v>49919</v>
+      </c>
+      <c r="B808" s="20"/>
+      <c r="C808" s="13"/>
+      <c r="D808" s="39"/>
+      <c r="E808" s="9"/>
+      <c r="F808" s="20"/>
+      <c r="G808" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H808" s="39"/>
+      <c r="I808" s="9"/>
+      <c r="J808" s="11"/>
+      <c r="K808" s="20"/>
+    </row>
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A809" s="40">
+        <v>49949</v>
+      </c>
+      <c r="B809" s="20"/>
+      <c r="C809" s="13"/>
+      <c r="D809" s="39"/>
+      <c r="E809" s="9"/>
+      <c r="F809" s="20"/>
+      <c r="G809" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H809" s="39"/>
+      <c r="I809" s="9"/>
+      <c r="J809" s="11"/>
+      <c r="K809" s="20"/>
+    </row>
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A810" s="40">
+        <v>49980</v>
+      </c>
+      <c r="B810" s="20"/>
+      <c r="C810" s="13"/>
+      <c r="D810" s="39"/>
+      <c r="E810" s="9"/>
+      <c r="F810" s="20"/>
+      <c r="G810" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H810" s="39"/>
+      <c r="I810" s="9"/>
+      <c r="J810" s="11"/>
+      <c r="K810" s="20"/>
+    </row>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A811" s="40"/>
+      <c r="B811" s="20"/>
+      <c r="C811" s="13"/>
+      <c r="D811" s="39"/>
+      <c r="E811" s="9"/>
+      <c r="F811" s="20"/>
+      <c r="G811" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H811" s="39"/>
+      <c r="I811" s="9"/>
+      <c r="J811" s="11"/>
+      <c r="K811" s="20"/>
+    </row>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A812" s="40"/>
+      <c r="B812" s="20"/>
+      <c r="C812" s="13"/>
+      <c r="D812" s="39"/>
+      <c r="E812" s="9"/>
+      <c r="F812" s="20"/>
+      <c r="G812" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H812" s="39"/>
+      <c r="I812" s="9"/>
+      <c r="J812" s="11"/>
+      <c r="K812" s="20"/>
+    </row>
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A813" s="40"/>
+      <c r="B813" s="20"/>
+      <c r="C813" s="13"/>
+      <c r="D813" s="39"/>
+      <c r="E813" s="9"/>
+      <c r="F813" s="20"/>
+      <c r="G813" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H813" s="39"/>
+      <c r="I813" s="9"/>
+      <c r="J813" s="11"/>
+      <c r="K813" s="20"/>
+    </row>
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A814" s="40"/>
+      <c r="B814" s="20"/>
+      <c r="C814" s="13"/>
+      <c r="D814" s="39"/>
+      <c r="E814" s="9"/>
+      <c r="F814" s="20"/>
+      <c r="G814" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H814" s="39"/>
+      <c r="I814" s="9"/>
+      <c r="J814" s="11"/>
+      <c r="K814" s="20"/>
+    </row>
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A815" s="40"/>
+      <c r="B815" s="20"/>
+      <c r="C815" s="13"/>
+      <c r="D815" s="39"/>
+      <c r="E815" s="9"/>
+      <c r="F815" s="20"/>
+      <c r="G815" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H815" s="39"/>
+      <c r="I815" s="9"/>
+      <c r="J815" s="11"/>
+      <c r="K815" s="20"/>
+    </row>
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A816" s="41"/>
+      <c r="B816" s="15"/>
+      <c r="C816" s="42"/>
+      <c r="D816" s="43"/>
+      <c r="E816" s="9"/>
+      <c r="F816" s="15"/>
+      <c r="G816" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H816" s="43"/>
+      <c r="I816" s="9"/>
+      <c r="J816" s="12"/>
+      <c r="K816" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2A005-4666-4FD4-9287-38C7BB4B13B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5A5A3-04E1-44DB-93EC-ACADD51996A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="574">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2594,7 +2594,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2640,25 +2639,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K816" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K818" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2965,15 +2964,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L816"/>
+  <dimension ref="A2:L818"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A636" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K646" sqref="K646"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A640" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E649" sqref="E649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,7 +3139,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.478999999999928</v>
+        <v>60.728999999999928</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3150,7 +3149,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.291999999999973</v>
+        <v>45.541999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17434,26 +17433,34 @@
       <c r="A646" s="40">
         <v>44986</v>
       </c>
-      <c r="B646" s="20"/>
-      <c r="C646" s="13"/>
+      <c r="B646" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C646" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D646" s="39"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H646" s="39"/>
+      <c r="G646" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H646" s="39">
+        <v>1</v>
+      </c>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="49">
+        <v>44995</v>
+      </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A647" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B647" s="20"/>
-      <c r="C647" s="13"/>
+      <c r="A647" s="40"/>
+      <c r="B647" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C647" s="42"/>
       <c r="D647" s="39"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
@@ -17464,14 +17471,16 @@
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="49">
+        <v>45008</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A648" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B648" s="20"/>
-      <c r="C648" s="13"/>
+      <c r="A648" s="40"/>
+      <c r="B648" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C648" s="42"/>
       <c r="D648" s="39"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
@@ -17479,14 +17488,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H648" s="39"/>
+      <c r="H648" s="39">
+        <v>1</v>
+      </c>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="49">
+        <v>45009</v>
+      </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -17504,7 +17517,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -17522,7 +17535,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -17540,7 +17553,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17558,7 +17571,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17576,7 +17589,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17594,7 +17607,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17612,7 +17625,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17630,7 +17643,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17648,7 +17661,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17666,7 +17679,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17684,7 +17697,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17702,7 +17715,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17720,7 +17733,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17738,7 +17751,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17756,7 +17769,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17774,7 +17787,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17792,7 +17805,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17810,7 +17823,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17828,7 +17841,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17846,7 +17859,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17864,7 +17877,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17882,7 +17895,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17900,7 +17913,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17918,7 +17931,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17936,7 +17949,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17954,7 +17967,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17972,7 +17985,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17990,7 +18003,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18008,7 +18021,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18026,7 +18039,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18044,7 +18057,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18062,7 +18075,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18080,7 +18093,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18098,7 +18111,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18116,7 +18129,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18134,7 +18147,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18152,7 +18165,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18170,7 +18183,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18188,7 +18201,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18206,7 +18219,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18224,7 +18237,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18242,7 +18255,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18260,7 +18273,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18278,7 +18291,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18296,7 +18309,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18314,7 +18327,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18332,7 +18345,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18350,7 +18363,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18368,7 +18381,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18386,7 +18399,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18404,7 +18417,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18422,7 +18435,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18440,7 +18453,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18458,7 +18471,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18476,7 +18489,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18494,7 +18507,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18512,7 +18525,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18530,7 +18543,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18548,7 +18561,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18566,7 +18579,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18584,7 +18597,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18602,7 +18615,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18620,7 +18633,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18638,7 +18651,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18656,7 +18669,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18674,7 +18687,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18692,7 +18705,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18710,7 +18723,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18728,7 +18741,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18746,7 +18759,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18764,7 +18777,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18782,7 +18795,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18800,7 +18813,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18818,7 +18831,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18836,7 +18849,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18854,7 +18867,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18872,7 +18885,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18890,7 +18903,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18908,7 +18921,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18926,7 +18939,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18944,7 +18957,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18962,7 +18975,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -18980,7 +18993,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -18998,7 +19011,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19016,7 +19029,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19034,7 +19047,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19052,7 +19065,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19070,7 +19083,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19088,7 +19101,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19106,7 +19119,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19124,7 +19137,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19142,7 +19155,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19160,7 +19173,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19178,7 +19191,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19196,7 +19209,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19214,7 +19227,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19232,7 +19245,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19250,7 +19263,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19268,7 +19281,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19286,7 +19299,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19304,7 +19317,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19322,7 +19335,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19340,7 +19353,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19358,7 +19371,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19376,7 +19389,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19394,7 +19407,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19412,7 +19425,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19430,7 +19443,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19448,7 +19461,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19466,7 +19479,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19484,7 +19497,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19502,7 +19515,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19520,7 +19533,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19538,7 +19551,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19556,7 +19569,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19574,7 +19587,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19592,7 +19605,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19610,7 +19623,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19628,7 +19641,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19646,7 +19659,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19664,7 +19677,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19682,7 +19695,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19700,7 +19713,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19718,7 +19731,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19736,7 +19749,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19754,7 +19767,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19772,7 +19785,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19790,7 +19803,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19808,7 +19821,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19826,7 +19839,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19844,7 +19857,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19862,7 +19875,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19880,7 +19893,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19898,7 +19911,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19916,7 +19929,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19934,7 +19947,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19952,7 +19965,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -19970,7 +19983,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -19988,7 +20001,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="40">
-        <v>49310</v>
+        <v>49249</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20006,7 +20019,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="40">
-        <v>49341</v>
+        <v>49279</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20024,7 +20037,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40">
-        <v>49369</v>
+        <v>49310</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20042,7 +20055,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="40">
-        <v>49400</v>
+        <v>49341</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20060,7 +20073,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="40">
-        <v>49430</v>
+        <v>49369</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20078,7 +20091,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="40">
-        <v>49461</v>
+        <v>49400</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20096,7 +20109,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="40">
-        <v>49491</v>
+        <v>49430</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20114,7 +20127,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="40">
-        <v>49522</v>
+        <v>49461</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20132,7 +20145,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="40">
-        <v>49553</v>
+        <v>49491</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20150,7 +20163,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="40">
-        <v>49583</v>
+        <v>49522</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20168,7 +20181,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="40">
-        <v>49614</v>
+        <v>49553</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20186,7 +20199,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="40">
-        <v>49644</v>
+        <v>49583</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20204,7 +20217,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="40">
-        <v>49675</v>
+        <v>49614</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20222,7 +20235,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="40">
-        <v>49706</v>
+        <v>49644</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20240,7 +20253,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="40">
-        <v>49735</v>
+        <v>49675</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20258,7 +20271,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="40">
-        <v>49766</v>
+        <v>49706</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20276,7 +20289,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="40">
-        <v>49796</v>
+        <v>49735</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20294,7 +20307,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="40">
-        <v>49827</v>
+        <v>49766</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20312,7 +20325,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="40">
-        <v>49857</v>
+        <v>49796</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20330,7 +20343,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="40">
-        <v>49888</v>
+        <v>49827</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20348,7 +20361,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="40">
-        <v>49919</v>
+        <v>49857</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20366,7 +20379,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="40">
-        <v>49949</v>
+        <v>49888</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20384,7 +20397,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="40">
-        <v>49980</v>
+        <v>49919</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20401,7 +20414,9 @@
       <c r="K810" s="20"/>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A811" s="40"/>
+      <c r="A811" s="40">
+        <v>49949</v>
+      </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
       <c r="D811" s="39"/>
@@ -20417,7 +20432,9 @@
       <c r="K811" s="20"/>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A812" s="40"/>
+      <c r="A812" s="40">
+        <v>49980</v>
+      </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
       <c r="D812" s="39"/>
@@ -20481,20 +20498,52 @@
       <c r="K815" s="20"/>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A816" s="41"/>
-      <c r="B816" s="15"/>
-      <c r="C816" s="42"/>
-      <c r="D816" s="43"/>
+      <c r="A816" s="40"/>
+      <c r="B816" s="20"/>
+      <c r="C816" s="13"/>
+      <c r="D816" s="39"/>
       <c r="E816" s="9"/>
-      <c r="F816" s="15"/>
-      <c r="G816" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H816" s="43"/>
+      <c r="F816" s="20"/>
+      <c r="G816" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H816" s="39"/>
       <c r="I816" s="9"/>
-      <c r="J816" s="12"/>
-      <c r="K816" s="15"/>
+      <c r="J816" s="11"/>
+      <c r="K816" s="20"/>
+    </row>
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A817" s="40"/>
+      <c r="B817" s="20"/>
+      <c r="C817" s="13"/>
+      <c r="D817" s="39"/>
+      <c r="E817" s="9"/>
+      <c r="F817" s="20"/>
+      <c r="G817" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H817" s="39"/>
+      <c r="I817" s="9"/>
+      <c r="J817" s="11"/>
+      <c r="K817" s="20"/>
+    </row>
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A818" s="41"/>
+      <c r="B818" s="15"/>
+      <c r="C818" s="42"/>
+      <c r="D818" s="43"/>
+      <c r="E818" s="9"/>
+      <c r="F818" s="15"/>
+      <c r="G818" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H818" s="43"/>
+      <c r="I818" s="9"/>
+      <c r="J818" s="12"/>
+      <c r="K818" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20511,10 +20560,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20537,7 +20586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5A5A3-04E1-44DB-93EC-ACADD51996A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="574">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1941,7 +1940,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2639,25 +2638,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K818" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K818" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2964,33 +2963,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:L818"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A640" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E649" sqref="E649"/>
+      <pane ySplit="4425" topLeftCell="A640" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B650" sqref="B650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3034,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3065,7 +3064,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3078,7 +3077,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3095,7 +3094,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3149,12 +3148,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.541999999999973</v>
+        <v>44.541999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>48</v>
       </c>
@@ -3176,7 +3175,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36434</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>50</v>
@@ -3220,7 +3219,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -3242,7 +3241,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36465</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>36291</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -3288,7 +3287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15" t="s">
         <v>53</v>
@@ -3310,7 +3309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3334,7 +3333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>54</v>
@@ -3354,7 +3353,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36495</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>60</v>
@@ -3400,7 +3399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -3424,7 +3423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>61</v>
@@ -3446,7 +3445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>62</v>
@@ -3466,7 +3465,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>66</v>
       </c>
@@ -3484,7 +3483,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36526</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>68</v>
@@ -3532,7 +3531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36557</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36586</v>
       </c>
@@ -3578,7 +3577,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36617</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -3626,7 +3625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>75</v>
@@ -3644,7 +3643,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36647</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>49</v>
@@ -3688,7 +3687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>76</v>
@@ -3710,7 +3709,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36678</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>60</v>
@@ -3756,7 +3755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>79</v>
@@ -3778,7 +3777,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36708</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>36745</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>82</v>
@@ -3824,7 +3823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -3846,7 +3845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>83</v>
@@ -3868,7 +3867,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36739</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>36533</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>49</v>
@@ -3914,7 +3913,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>86</v>
@@ -3936,7 +3935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>87</v>
@@ -3958,7 +3957,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36770</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>36869</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>49</v>
@@ -4004,7 +4003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>82</v>
@@ -4026,7 +4025,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>90</v>
@@ -4050,7 +4049,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36800</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -4096,7 +4095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>60</v>
@@ -4116,7 +4115,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>92</v>
@@ -4138,7 +4137,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36831</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>60</v>
@@ -4184,7 +4183,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>92</v>
@@ -4206,7 +4205,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36861</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>36872</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>60</v>
@@ -4248,7 +4247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>60</v>
@@ -4268,7 +4267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>51</v>
@@ -4290,7 +4289,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>101</v>
       </c>
@@ -4308,7 +4307,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36892</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>102</v>
@@ -4356,7 +4355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36923</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>104</v>
@@ -4402,7 +4401,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>105</v>
@@ -4424,7 +4423,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36951</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>37137</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36982</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>49</v>
@@ -4496,7 +4495,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>110</v>
@@ -4520,7 +4519,7 @@
         <v>37016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>113</v>
@@ -4542,7 +4541,7 @@
         <v>36927</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37012</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>91</v>
@@ -4590,7 +4589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>82</v>
@@ -4610,7 +4609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>115</v>
@@ -4632,7 +4631,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37043</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>37109</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>49</v>
@@ -4678,7 +4677,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>119</v>
@@ -4702,7 +4701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>119</v>
@@ -4724,7 +4723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>120</v>
@@ -4746,7 +4745,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37073</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>40581</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>119</v>
@@ -4790,7 +4789,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>125</v>
@@ -4812,7 +4811,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>119</v>
@@ -4834,7 +4833,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>126</v>
@@ -4856,7 +4855,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37104</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37135</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>130</v>
@@ -4928,7 +4927,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>104</v>
@@ -4950,7 +4949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>131</v>
@@ -4972,7 +4971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>136</v>
@@ -4996,7 +4995,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37165</v>
       </c>
@@ -5016,7 +5015,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>138</v>
@@ -5040,7 +5039,7 @@
         <v>36901</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>131</v>
@@ -5062,7 +5061,7 @@
         <v>36960</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>91</v>
@@ -5084,7 +5083,7 @@
         <v>37235</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>139</v>
@@ -5108,7 +5107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37196</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>141</v>
@@ -5153,7 +5152,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>119</v>
@@ -5175,7 +5174,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>90</v>
@@ -5197,7 +5196,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37226</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>37084</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>145</v>
@@ -5245,7 +5244,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>146</v>
       </c>
@@ -5263,7 +5262,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37257</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>147</v>
@@ -5311,7 +5310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37288</v>
       </c>
@@ -5335,7 +5334,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37316</v>
       </c>
@@ -5361,7 +5360,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37347</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -5407,7 +5406,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>152</v>
@@ -5427,7 +5426,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37377</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>82</v>
@@ -5471,7 +5470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -5493,7 +5492,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>156</v>
@@ -5517,7 +5516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>157</v>
@@ -5539,7 +5538,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37408</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>49</v>
@@ -5587,7 +5586,7 @@
         <v>37321</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37438</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37469</v>
       </c>
@@ -5639,7 +5638,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>119</v>
@@ -5663,7 +5662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>165</v>
@@ -5683,7 +5682,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37500</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37530</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>49</v>
@@ -5757,7 +5756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37561</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>173</v>
@@ -5803,7 +5802,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37591</v>
       </c>
@@ -5823,7 +5822,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>174</v>
       </c>
@@ -5841,7 +5840,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37622</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15" t="s">
         <v>175</v>
@@ -5887,7 +5886,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>176</v>
@@ -5909,7 +5908,7 @@
         <v>37682</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37288</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37681</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37712</v>
       </c>
@@ -5985,7 +5984,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37742</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -6031,7 +6030,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>167</v>
@@ -6053,7 +6052,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>37773</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37803</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>37809</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37834</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -6149,7 +6148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>49</v>
@@ -6171,7 +6170,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>187</v>
@@ -6193,7 +6192,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37865</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>190</v>
@@ -6237,7 +6236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>49</v>
@@ -6259,7 +6258,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>186</v>
@@ -6283,7 +6282,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37895</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>49</v>
@@ -6327,7 +6326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>49</v>
@@ -6349,7 +6348,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>195</v>
@@ -6371,7 +6370,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37926</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>37966</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>199</v>
@@ -6419,7 +6418,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37956</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>37664</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>49</v>
@@ -6467,7 +6466,7 @@
         <v>37845</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>201</v>
@@ -6489,7 +6488,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>202</v>
@@ -6513,7 +6512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
         <v>205</v>
       </c>
@@ -6531,7 +6530,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37987</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>38019</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>206</v>
@@ -6579,7 +6578,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38018</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>49</v>
@@ -6623,7 +6622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>209</v>
@@ -6645,7 +6644,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38047</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>38049</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>211</v>
@@ -6689,7 +6688,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>212</v>
@@ -6713,7 +6712,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38078</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>96</v>
@@ -6759,7 +6758,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>215</v>
@@ -6783,7 +6782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38108</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>38296</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>49</v>
@@ -6829,7 +6828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>219</v>
@@ -6851,7 +6850,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38139</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>38144</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41"/>
       <c r="B174" s="15" t="s">
         <v>49</v>
@@ -6897,7 +6896,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>119</v>
@@ -6921,7 +6920,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>221</v>
@@ -6943,7 +6942,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38169</v>
       </c>
@@ -6965,7 +6964,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>125</v>
@@ -6989,7 +6988,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>119</v>
@@ -7011,7 +7010,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>224</v>
@@ -7035,7 +7034,7 @@
         <v>38025</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>38200</v>
       </c>
@@ -7059,7 +7058,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38231</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>228</v>
@@ -7107,7 +7106,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38261</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>227</v>
@@ -7153,7 +7152,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>49</v>
@@ -7175,7 +7174,7 @@
         <v>38117</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38292</v>
       </c>
@@ -7197,7 +7196,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>232</v>
@@ -7223,7 +7222,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>38322</v>
       </c>
@@ -7247,7 +7246,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
         <v>235</v>
       </c>
@@ -7265,7 +7264,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38353</v>
       </c>
@@ -7285,7 +7284,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7307,7 +7306,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>237</v>
@@ -7331,7 +7330,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>38384</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>38535</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>240</v>
@@ -7375,7 +7374,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>241</v>
@@ -7397,7 +7396,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38412</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>38445</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>145</v>
@@ -7445,7 +7444,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38443</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>38568</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>49</v>
@@ -7491,7 +7490,7 @@
         <v>38476</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>244</v>
@@ -7513,7 +7512,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38473</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>38448</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>245</v>
@@ -7561,7 +7560,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41">
         <v>38504</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>247</v>
@@ -7607,7 +7606,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38534</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -7653,7 +7652,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>251</v>
@@ -7675,7 +7674,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38565</v>
       </c>
@@ -7699,7 +7698,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38596</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>38481</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>246</v>
@@ -7745,7 +7744,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>252</v>
@@ -7767,7 +7766,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38626</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -7815,7 +7814,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41"/>
       <c r="B215" s="15" t="s">
         <v>254</v>
@@ -7837,7 +7836,7 @@
       <c r="J215" s="12"/>
       <c r="K215" s="15"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38657</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>156</v>
@@ -7887,7 +7886,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38687</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>260</v>
       </c>
@@ -7927,7 +7926,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38718</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>39022</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>49</v>
@@ -7973,7 +7972,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>246</v>
@@ -7995,7 +7994,7 @@
         <v>38750</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>261</v>
@@ -8017,7 +8016,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>38749</v>
       </c>
@@ -8041,7 +8040,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>49</v>
@@ -8065,7 +8064,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>264</v>
@@ -8087,7 +8086,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="41">
         <v>38777</v>
       </c>
@@ -8111,7 +8110,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>236</v>
@@ -8131,7 +8130,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>119</v>
@@ -8155,7 +8154,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>236</v>
@@ -8175,7 +8174,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>268</v>
@@ -8197,7 +8196,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="15"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>38808</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>269</v>
@@ -8243,7 +8242,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="15"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38838</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>38781</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>49</v>
@@ -8289,7 +8288,7 @@
         <v>39026</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>119</v>
@@ -8313,7 +8312,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>271</v>
@@ -8335,7 +8334,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="15"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>38869</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>38935</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>49</v>
@@ -8379,7 +8378,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>119</v>
@@ -8401,7 +8400,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>119</v>
@@ -8423,7 +8422,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>273</v>
@@ -8445,7 +8444,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38899</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>276</v>
@@ -8491,7 +8490,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="15"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38930</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>38937</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>49</v>
@@ -8537,7 +8536,7 @@
         <v>39059</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>278</v>
@@ -8559,7 +8558,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>38961</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>38816</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>119</v>
@@ -8607,7 +8606,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>279</v>
@@ -8629,7 +8628,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="15"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>38991</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>281</v>
@@ -8675,7 +8674,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>282</v>
@@ -8697,7 +8696,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="15"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>39022</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>246</v>
@@ -8743,7 +8742,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>125</v>
@@ -8767,7 +8766,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>285</v>
@@ -8789,7 +8788,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="15"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39052</v>
       </c>
@@ -8813,7 +8812,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
         <v>289</v>
       </c>
@@ -8831,7 +8830,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>39083</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>290</v>
@@ -8875,7 +8874,7 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>175</v>
@@ -8897,7 +8896,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>291</v>
@@ -8919,7 +8918,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39114</v>
       </c>
@@ -8937,7 +8936,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>49</v>
@@ -8959,7 +8958,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>293</v>
@@ -8981,7 +8980,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>39142</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>39328</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>290</v>
@@ -9025,7 +9024,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9047,7 +9046,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="15" t="s">
         <v>294</v>
@@ -9069,7 +9068,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>39173</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>297</v>
@@ -9115,7 +9114,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39203</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>299</v>
@@ -9163,7 +9162,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>246</v>
@@ -9185,7 +9184,7 @@
         <v>39178</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>299</v>
@@ -9207,7 +9206,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>300</v>
@@ -9229,7 +9228,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39234</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="49"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>39264</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>39362</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>49</v>
@@ -9301,7 +9300,7 @@
         <v>39362</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>304</v>
@@ -9321,7 +9320,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>305</v>
@@ -9343,7 +9342,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>306</v>
@@ -9365,7 +9364,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>39295</v>
       </c>
@@ -9389,7 +9388,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39326</v>
       </c>
@@ -9415,7 +9414,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39356</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>312</v>
@@ -9461,7 +9460,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>39387</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>313</v>
@@ -9507,7 +9506,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="41">
         <v>39417</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>49</v>
@@ -9553,7 +9552,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>315</v>
@@ -9575,7 +9574,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23" t="s">
         <v>316</v>
       </c>
@@ -9593,7 +9592,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>39448</v>
       </c>
@@ -9615,7 +9614,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>310</v>
@@ -9637,7 +9636,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>319</v>
@@ -9661,7 +9660,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>39479</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>39754</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>175</v>
@@ -9703,7 +9702,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>236</v>
@@ -9723,7 +9722,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>322</v>
@@ -9747,7 +9746,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>39508</v>
       </c>
@@ -9771,7 +9770,7 @@
         <v>39602</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>325</v>
@@ -9795,7 +9794,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>39539</v>
       </c>
@@ -9819,7 +9818,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>39569</v>
       </c>
@@ -9843,7 +9842,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9861,7 +9860,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>39600</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>328</v>
@@ -9907,7 +9906,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>39630</v>
       </c>
@@ -9931,7 +9930,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39661</v>
       </c>
@@ -9955,7 +9954,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>39692</v>
       </c>
@@ -9979,7 +9978,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39722</v>
       </c>
@@ -10001,7 +10000,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>49</v>
@@ -10023,7 +10022,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="41"/>
       <c r="B313" s="15" t="s">
         <v>333</v>
@@ -10045,7 +10044,7 @@
       <c r="J313" s="12"/>
       <c r="K313" s="15"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>39753</v>
       </c>
@@ -10069,7 +10068,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>337</v>
@@ -10115,7 +10114,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>339</v>
       </c>
@@ -10133,7 +10132,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>49</v>
@@ -10179,7 +10178,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>49</v>
@@ -10201,7 +10200,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>39845</v>
       </c>
@@ -10221,7 +10220,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>39873</v>
       </c>
@@ -10241,7 +10240,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39904</v>
       </c>
@@ -10261,7 +10260,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>39934</v>
       </c>
@@ -10281,7 +10280,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39965</v>
       </c>
@@ -10307,7 +10306,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="41">
         <v>39995</v>
       </c>
@@ -10327,7 +10326,7 @@
       <c r="J326" s="12"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40026</v>
       </c>
@@ -10347,7 +10346,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>40057</v>
       </c>
@@ -10371,7 +10370,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40087</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40118</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>236</v>
@@ -10443,7 +10442,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>40148</v>
       </c>
@@ -10469,7 +10468,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>236</v>
@@ -10489,7 +10488,7 @@
         <v>39915</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23" t="s">
         <v>347</v>
       </c>
@@ -10507,7 +10506,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40179</v>
       </c>
@@ -10531,7 +10530,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>49</v>
@@ -10553,7 +10552,7 @@
         <v>40239</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>348</v>
@@ -10575,7 +10574,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40210</v>
       </c>
@@ -10599,7 +10598,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41">
         <v>40238</v>
       </c>
@@ -10623,7 +10622,7 @@
         <v>40515</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>236</v>
@@ -10643,7 +10642,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>351</v>
@@ -10665,7 +10664,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40269</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>352</v>
@@ -10709,7 +10708,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40299</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>40273</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>49</v>
@@ -10755,7 +10754,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>236</v>
@@ -10775,7 +10774,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>354</v>
@@ -10797,7 +10796,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40330</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>49</v>
@@ -10843,7 +10842,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>357</v>
@@ -10865,7 +10864,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>40360</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>49</v>
@@ -10911,7 +10910,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>360</v>
@@ -10933,7 +10932,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10949,7 +10948,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40391</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>40520</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -10995,7 +10994,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="41"/>
       <c r="B357" s="15" t="s">
         <v>363</v>
@@ -11017,7 +11016,7 @@
       <c r="J357" s="12"/>
       <c r="K357" s="15"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40422</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>365</v>
@@ -11065,7 +11064,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40452</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>49</v>
@@ -11108,7 +11107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>369</v>
@@ -11130,7 +11129,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40483</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>370</v>
@@ -11176,7 +11175,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>246</v>
@@ -11198,7 +11197,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>371</v>
@@ -11220,7 +11219,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>40513</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>375</v>
@@ -11264,7 +11263,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
         <v>376</v>
       </c>
@@ -11282,7 +11281,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40544</v>
       </c>
@@ -11306,7 +11305,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40575</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>190</v>
@@ -11350,7 +11349,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>49</v>
@@ -11372,7 +11371,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>236</v>
@@ -11396,7 +11395,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>90</v>
@@ -11414,7 +11413,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40603</v>
       </c>
@@ -11438,7 +11437,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="41"/>
       <c r="B377" s="15" t="s">
         <v>49</v>
@@ -11460,7 +11459,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>382</v>
@@ -11482,7 +11481,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40634</v>
       </c>
@@ -11506,7 +11505,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40664</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>40791</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>386</v>
@@ -11550,7 +11549,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40695</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>40580</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>49</v>
@@ -11596,7 +11595,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>387</v>
@@ -11618,7 +11617,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40725</v>
       </c>
@@ -11642,7 +11641,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40756</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>49</v>
@@ -11688,7 +11687,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>389</v>
@@ -11710,7 +11709,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40787</v>
       </c>
@@ -11734,7 +11733,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>392</v>
@@ -11756,7 +11755,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>40817</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>40826</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>236</v>
@@ -11800,7 +11799,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>246</v>
@@ -11822,7 +11821,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>49</v>
@@ -11844,7 +11843,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>394</v>
@@ -11866,7 +11865,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41">
         <v>40848</v>
       </c>
@@ -11890,7 +11889,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>40878</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>370</v>
@@ -11938,7 +11937,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>190</v>
@@ -11960,7 +11959,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>49</v>
@@ -11982,7 +11981,7 @@
         <v>40675</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>49</v>
@@ -12004,7 +12003,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23" t="s">
         <v>401</v>
       </c>
@@ -12022,7 +12021,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>40909</v>
       </c>
@@ -12046,7 +12045,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -12070,7 +12069,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>403</v>
@@ -12092,7 +12091,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>40969</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>236</v>
@@ -12134,7 +12133,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>49</v>
@@ -12156,7 +12155,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>49</v>
@@ -12178,7 +12177,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>405</v>
@@ -12200,7 +12199,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41000</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>60</v>
@@ -12246,7 +12245,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>410</v>
@@ -12270,7 +12269,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41030</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>60</v>
@@ -12316,7 +12315,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>413</v>
@@ -12338,7 +12337,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -12354,7 +12353,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>41061</v>
       </c>
@@ -12378,7 +12377,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>49</v>
@@ -12400,7 +12399,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="41"/>
       <c r="B420" s="15" t="s">
         <v>416</v>
@@ -12422,7 +12421,7 @@
       <c r="J420" s="12"/>
       <c r="K420" s="15"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41091</v>
       </c>
@@ -12446,7 +12445,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -12468,7 +12467,7 @@
         <v>41220</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>418</v>
@@ -12490,7 +12489,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41122</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>41190</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>209</v>
@@ -12536,7 +12535,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41153</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>40977</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>49</v>
@@ -12582,7 +12581,7 @@
         <v>41191</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>419</v>
@@ -12604,7 +12603,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41183</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>310</v>
@@ -12650,7 +12649,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>236</v>
@@ -12670,7 +12669,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>420</v>
@@ -12694,7 +12693,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41214</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>49</v>
@@ -12740,7 +12739,7 @@
         <v>41132</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="41"/>
       <c r="B435" s="15" t="s">
         <v>49</v>
@@ -12762,7 +12761,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>310</v>
@@ -12784,7 +12783,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>424</v>
@@ -12806,7 +12805,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41244</v>
       </c>
@@ -12830,7 +12829,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23" t="s">
         <v>429</v>
       </c>
@@ -12848,7 +12847,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>41275</v>
       </c>
@@ -12872,7 +12871,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41306</v>
       </c>
@@ -12896,7 +12895,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>49</v>
@@ -12918,7 +12917,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>278</v>
@@ -12940,7 +12939,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41334</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>41428</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>434</v>
@@ -12984,7 +12983,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>49</v>
@@ -13006,7 +13005,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>435</v>
@@ -13028,7 +13027,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>41365</v>
       </c>
@@ -13052,7 +13051,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>438</v>
@@ -13074,7 +13073,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="41">
         <v>41395</v>
       </c>
@@ -13098,7 +13097,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>439</v>
@@ -13124,7 +13123,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>41426</v>
       </c>
@@ -13148,7 +13147,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41456</v>
       </c>
@@ -13172,7 +13171,7 @@
         <v>41524</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>236</v>
@@ -13192,7 +13191,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -13214,7 +13213,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>443</v>
@@ -13236,7 +13235,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41487</v>
       </c>
@@ -13260,7 +13259,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>49</v>
@@ -13282,7 +13281,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>445</v>
@@ -13304,7 +13303,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>41518</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>41526</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>431</v>
@@ -13350,7 +13349,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>451</v>
@@ -13372,7 +13371,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>41548</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>49</v>
@@ -13418,7 +13417,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>49</v>
@@ -13440,7 +13439,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>452</v>
@@ -13462,7 +13461,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>41579</v>
       </c>
@@ -13484,7 +13483,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>456</v>
@@ -13508,7 +13507,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>41609</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="41"/>
       <c r="B470" s="15" t="s">
         <v>458</v>
@@ -13554,7 +13553,7 @@
       <c r="J470" s="12"/>
       <c r="K470" s="15"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23" t="s">
         <v>460</v>
       </c>
@@ -13572,7 +13571,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41640</v>
       </c>
@@ -13596,7 +13595,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>41671</v>
       </c>
@@ -13620,7 +13619,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>41699</v>
       </c>
@@ -13642,7 +13641,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>236</v>
@@ -13662,7 +13661,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>463</v>
@@ -13684,7 +13683,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>41730</v>
       </c>
@@ -13708,7 +13707,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41760</v>
       </c>
@@ -13732,7 +13731,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>467</v>
@@ -13754,7 +13753,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>41791</v>
       </c>
@@ -13778,7 +13777,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41821</v>
       </c>
@@ -13802,7 +13801,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>41852</v>
       </c>
@@ -13822,7 +13821,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>41883</v>
       </c>
@@ -13842,7 +13841,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="41">
         <v>41913</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>370</v>
@@ -13890,7 +13889,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>41944</v>
       </c>
@@ -13910,7 +13909,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="15"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>41974</v>
       </c>
@@ -13936,7 +13935,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
         <v>474</v>
       </c>
@@ -13954,7 +13953,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="15"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>42005</v>
       </c>
@@ -13974,7 +13973,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="15"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>42036</v>
       </c>
@@ -13998,7 +13997,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42064</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42095</v>
       </c>
@@ -14042,7 +14041,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42125</v>
       </c>
@@ -14062,7 +14061,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>42156</v>
       </c>
@@ -14082,7 +14081,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42186</v>
       </c>
@@ -14106,7 +14105,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>477</v>
@@ -14128,7 +14127,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>42217</v>
       </c>
@@ -14156,7 +14155,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>42248</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>96</v>
@@ -14202,7 +14201,7 @@
         <v>42045</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>49</v>
@@ -14224,7 +14223,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>385</v>
@@ -14246,7 +14245,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="41">
         <v>42278</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>61</v>
@@ -14290,7 +14289,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>234</v>
@@ -14312,7 +14311,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>42309</v>
       </c>
@@ -14330,7 +14329,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>236</v>
@@ -14352,7 +14351,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>486</v>
@@ -14378,7 +14377,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42339</v>
       </c>
@@ -14402,7 +14401,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>490</v>
@@ -14424,7 +14423,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>246</v>
@@ -14446,7 +14445,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23" t="s">
         <v>493</v>
       </c>
@@ -14464,7 +14463,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>42370</v>
       </c>
@@ -14486,7 +14485,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>494</v>
@@ -14508,7 +14507,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42401</v>
       </c>
@@ -14532,7 +14531,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>42430</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="41"/>
       <c r="B516" s="15" t="s">
         <v>236</v>
@@ -14576,7 +14575,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>497</v>
@@ -14598,7 +14597,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42461</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>500</v>
@@ -14644,7 +14643,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42491</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>501</v>
@@ -14690,7 +14689,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42522</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>504</v>
@@ -14736,7 +14735,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>42552</v>
       </c>
@@ -14760,7 +14759,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>42583</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>507</v>
@@ -14806,7 +14805,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>42614</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>509</v>
@@ -14853,7 +14852,7 @@
       <c r="K528" s="20"/>
       <c r="L528" s="11"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42644</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>511</v>
@@ -14899,7 +14898,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>42675</v>
       </c>
@@ -14923,7 +14922,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>513</v>
@@ -14945,7 +14944,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>42705</v>
       </c>
@@ -14967,7 +14966,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="41"/>
       <c r="B534" s="15" t="s">
         <v>515</v>
@@ -14991,7 +14990,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23" t="s">
         <v>517</v>
       </c>
@@ -15009,7 +15008,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="15"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42736</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>42767</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42795</v>
       </c>
@@ -15079,7 +15078,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="15"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42826</v>
       </c>
@@ -15103,7 +15102,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>49</v>
@@ -15127,7 +15126,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>42856</v>
       </c>
@@ -15153,7 +15152,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>236</v>
@@ -15173,7 +15172,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>236</v>
@@ -15193,7 +15192,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>42887</v>
       </c>
@@ -15219,7 +15218,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>42917</v>
       </c>
@@ -15239,7 +15238,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42948</v>
       </c>
@@ -15263,7 +15262,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>60</v>
@@ -15287,7 +15286,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15303,7 +15302,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42979</v>
       </c>
@@ -15327,7 +15326,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>49</v>
@@ -15351,7 +15350,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43009</v>
       </c>
@@ -15371,7 +15370,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>43040</v>
       </c>
@@ -15391,7 +15390,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="41">
         <v>43070</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>42959</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>230</v>
@@ -15437,7 +15436,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23" t="s">
         <v>528</v>
       </c>
@@ -15455,7 +15454,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>43101</v>
       </c>
@@ -15477,7 +15476,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>60</v>
@@ -15501,7 +15500,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>43132</v>
       </c>
@@ -15521,7 +15520,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>43160</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>43191</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>49</v>
@@ -15593,7 +15592,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43221</v>
       </c>
@@ -15617,7 +15616,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>49</v>
@@ -15639,7 +15638,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>49</v>
@@ -15663,7 +15662,7 @@
         <v>43258</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>43252</v>
       </c>
@@ -15683,7 +15682,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43282</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
         <v>43313</v>
       </c>
@@ -15733,7 +15732,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>49</v>
@@ -15755,7 +15754,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -15779,7 +15778,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43344</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>43374</v>
       </c>
@@ -15831,7 +15830,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>49</v>
@@ -15853,7 +15852,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>49</v>
@@ -15875,7 +15874,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>43405</v>
       </c>
@@ -15895,7 +15894,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43435</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="41"/>
       <c r="B576" s="15" t="s">
         <v>49</v>
@@ -15941,7 +15940,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="48" t="s">
         <v>542</v>
       </c>
@@ -15959,7 +15958,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>43466</v>
       </c>
@@ -15979,7 +15978,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43497</v>
       </c>
@@ -15999,7 +15998,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43525</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43556</v>
       </c>
@@ -16043,7 +16042,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>43586</v>
       </c>
@@ -16063,7 +16062,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>43617</v>
       </c>
@@ -16087,7 +16086,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>43647</v>
       </c>
@@ -16107,7 +16106,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>43678</v>
       </c>
@@ -16131,7 +16130,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43709</v>
       </c>
@@ -16151,7 +16150,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>43739</v>
       </c>
@@ -16177,7 +16176,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43770</v>
       </c>
@@ -16197,7 +16196,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>43800</v>
       </c>
@@ -16221,7 +16220,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="23" t="s">
         <v>547</v>
       </c>
@@ -16239,7 +16238,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41">
         <v>43831</v>
       </c>
@@ -16263,7 +16262,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43862</v>
       </c>
@@ -16283,7 +16282,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43891</v>
       </c>
@@ -16303,7 +16302,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43922</v>
       </c>
@@ -16323,7 +16322,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
         <v>43952</v>
       </c>
@@ -16343,7 +16342,7 @@
       <c r="J595" s="12"/>
       <c r="K595" s="15"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43983</v>
       </c>
@@ -16363,7 +16362,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>44013</v>
       </c>
@@ -16383,7 +16382,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>44044</v>
       </c>
@@ -16403,7 +16402,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>44075</v>
       </c>
@@ -16425,7 +16424,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>236</v>
@@ -16445,7 +16444,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>96</v>
@@ -16467,7 +16466,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>550</v>
@@ -16491,7 +16490,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44105</v>
       </c>
@@ -16511,7 +16510,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44136</v>
       </c>
@@ -16535,7 +16534,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="23" t="s">
         <v>554</v>
       </c>
@@ -16553,7 +16552,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>44197</v>
       </c>
@@ -16573,7 +16572,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>44228</v>
       </c>
@@ -16593,7 +16592,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44256</v>
       </c>
@@ -16613,7 +16612,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44287</v>
       </c>
@@ -16633,7 +16632,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41">
         <v>44317</v>
       </c>
@@ -16653,7 +16652,7 @@
       <c r="J610" s="12"/>
       <c r="K610" s="15"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44348</v>
       </c>
@@ -16673,7 +16672,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44378</v>
       </c>
@@ -16693,7 +16692,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44409</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>236</v>
@@ -16737,7 +16736,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>44440</v>
       </c>
@@ -16757,7 +16756,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44470</v>
       </c>
@@ -16779,7 +16778,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44501</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>550</v>
@@ -16827,7 +16826,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>44531</v>
       </c>
@@ -16847,7 +16846,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="23" t="s">
         <v>561</v>
       </c>
@@ -16865,7 +16864,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>44562</v>
       </c>
@@ -16885,7 +16884,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44593</v>
       </c>
@@ -16905,7 +16904,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>44621</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>49</v>
@@ -16949,7 +16948,7 @@
         <v>44898</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>49</v>
@@ -16973,7 +16972,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44652</v>
       </c>
@@ -16999,7 +16998,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>434</v>
@@ -17019,7 +17018,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44682</v>
       </c>
@@ -17039,7 +17038,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="41">
         <v>44713</v>
       </c>
@@ -17063,7 +17062,7 @@
         <v>44779</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44743</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>49</v>
@@ -17109,7 +17108,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>49</v>
@@ -17131,7 +17130,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>49</v>
@@ -17153,7 +17152,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>49</v>
@@ -17175,7 +17174,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44774</v>
       </c>
@@ -17195,7 +17194,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44805</v>
       </c>
@@ -17221,7 +17220,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>124</v>
@@ -17243,7 +17242,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44835</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44866</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>370</v>
@@ -17317,7 +17316,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>44896</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>96</v>
@@ -17365,7 +17364,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="48" t="s">
         <v>573</v>
       </c>
@@ -17383,7 +17382,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="41">
         <v>44927</v>
       </c>
@@ -17403,7 +17402,7 @@
       <c r="J644" s="12"/>
       <c r="K644" s="15"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44958</v>
       </c>
@@ -17429,7 +17428,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44986</v>
       </c>
@@ -17455,7 +17454,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>236</v>
@@ -17475,7 +17474,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>124</v>
@@ -17497,11 +17496,13 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>45017</v>
       </c>
-      <c r="B649" s="20"/>
+      <c r="B649" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C649" s="13"/>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
@@ -17510,12 +17511,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H649" s="39"/>
+      <c r="H649" s="39">
+        <v>1</v>
+      </c>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
-    </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K649" s="49">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>45047</v>
       </c>
@@ -17533,7 +17538,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>45078</v>
       </c>
@@ -17551,7 +17556,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>45108</v>
       </c>
@@ -17569,7 +17574,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>45139</v>
       </c>
@@ -17587,7 +17592,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>45170</v>
       </c>
@@ -17605,7 +17610,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>45200</v>
       </c>
@@ -17623,7 +17628,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>45231</v>
       </c>
@@ -17641,7 +17646,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>45261</v>
       </c>
@@ -17659,7 +17664,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>45292</v>
       </c>
@@ -17677,7 +17682,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>45323</v>
       </c>
@@ -17695,7 +17700,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>45352</v>
       </c>
@@ -17713,7 +17718,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>45383</v>
       </c>
@@ -17731,7 +17736,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>45413</v>
       </c>
@@ -17749,7 +17754,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45444</v>
       </c>
@@ -17767,7 +17772,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45474</v>
       </c>
@@ -17785,7 +17790,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>45505</v>
       </c>
@@ -17803,7 +17808,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>45536</v>
       </c>
@@ -17821,7 +17826,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>45566</v>
       </c>
@@ -17839,7 +17844,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>45597</v>
       </c>
@@ -17857,7 +17862,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>45627</v>
       </c>
@@ -17875,7 +17880,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>45658</v>
       </c>
@@ -17893,7 +17898,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>45689</v>
       </c>
@@ -17911,7 +17916,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>45717</v>
       </c>
@@ -17929,7 +17934,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45748</v>
       </c>
@@ -17947,7 +17952,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>45778</v>
       </c>
@@ -17965,7 +17970,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>45809</v>
       </c>
@@ -17983,7 +17988,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45839</v>
       </c>
@@ -18001,7 +18006,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>45870</v>
       </c>
@@ -18019,7 +18024,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>45901</v>
       </c>
@@ -18037,7 +18042,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45931</v>
       </c>
@@ -18055,7 +18060,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45962</v>
       </c>
@@ -18073,7 +18078,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45992</v>
       </c>
@@ -18091,7 +18096,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>46023</v>
       </c>
@@ -18109,7 +18114,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>46054</v>
       </c>
@@ -18127,7 +18132,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>46082</v>
       </c>
@@ -18145,7 +18150,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>46113</v>
       </c>
@@ -18163,7 +18168,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>46143</v>
       </c>
@@ -18181,7 +18186,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>46174</v>
       </c>
@@ -18199,7 +18204,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>46204</v>
       </c>
@@ -18217,7 +18222,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>46235</v>
       </c>
@@ -18235,7 +18240,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>46266</v>
       </c>
@@ -18253,7 +18258,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>46296</v>
       </c>
@@ -18271,7 +18276,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>46327</v>
       </c>
@@ -18289,7 +18294,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>46357</v>
       </c>
@@ -18307,7 +18312,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>46388</v>
       </c>
@@ -18325,7 +18330,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>46419</v>
       </c>
@@ -18343,7 +18348,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>46447</v>
       </c>
@@ -18361,7 +18366,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>46478</v>
       </c>
@@ -18379,7 +18384,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>46508</v>
       </c>
@@ -18397,7 +18402,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>46539</v>
       </c>
@@ -18415,7 +18420,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>46569</v>
       </c>
@@ -18433,7 +18438,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>46600</v>
       </c>
@@ -18451,7 +18456,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>46631</v>
       </c>
@@ -18469,7 +18474,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>46661</v>
       </c>
@@ -18487,7 +18492,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>46692</v>
       </c>
@@ -18505,7 +18510,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>46722</v>
       </c>
@@ -18523,7 +18528,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>46753</v>
       </c>
@@ -18541,7 +18546,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>46784</v>
       </c>
@@ -18559,7 +18564,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>46813</v>
       </c>
@@ -18577,7 +18582,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>46844</v>
       </c>
@@ -18595,7 +18600,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>46874</v>
       </c>
@@ -18613,7 +18618,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>46905</v>
       </c>
@@ -18631,7 +18636,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>46935</v>
       </c>
@@ -18649,7 +18654,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>46966</v>
       </c>
@@ -18667,7 +18672,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>46997</v>
       </c>
@@ -18685,7 +18690,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>47027</v>
       </c>
@@ -18703,7 +18708,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>47058</v>
       </c>
@@ -18721,7 +18726,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>47088</v>
       </c>
@@ -18739,7 +18744,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>47119</v>
       </c>
@@ -18757,7 +18762,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>47150</v>
       </c>
@@ -18775,7 +18780,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>47178</v>
       </c>
@@ -18793,7 +18798,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>47209</v>
       </c>
@@ -18811,7 +18816,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>47239</v>
       </c>
@@ -18829,7 +18834,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>47270</v>
       </c>
@@ -18847,7 +18852,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>47300</v>
       </c>
@@ -18865,7 +18870,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>47331</v>
       </c>
@@ -18883,7 +18888,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>47362</v>
       </c>
@@ -18901,7 +18906,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>47392</v>
       </c>
@@ -18919,7 +18924,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>47423</v>
       </c>
@@ -18937,7 +18942,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>47453</v>
       </c>
@@ -18955,7 +18960,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>47484</v>
       </c>
@@ -18973,7 +18978,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>47515</v>
       </c>
@@ -18991,7 +18996,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>47543</v>
       </c>
@@ -19009,7 +19014,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>47574</v>
       </c>
@@ -19027,7 +19032,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>47604</v>
       </c>
@@ -19045,7 +19050,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>47635</v>
       </c>
@@ -19063,7 +19068,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>47665</v>
       </c>
@@ -19081,7 +19086,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>47696</v>
       </c>
@@ -19099,7 +19104,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>47727</v>
       </c>
@@ -19117,7 +19122,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
         <v>47757</v>
       </c>
@@ -19135,7 +19140,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
         <v>47788</v>
       </c>
@@ -19153,7 +19158,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
         <v>47818</v>
       </c>
@@ -19171,7 +19176,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
         <v>47849</v>
       </c>
@@ -19189,7 +19194,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
         <v>47880</v>
       </c>
@@ -19207,7 +19212,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
         <v>47908</v>
       </c>
@@ -19225,7 +19230,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
         <v>47939</v>
       </c>
@@ -19243,7 +19248,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
         <v>47969</v>
       </c>
@@ -19261,7 +19266,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
         <v>48000</v>
       </c>
@@ -19279,7 +19284,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
         <v>48030</v>
       </c>
@@ -19297,7 +19302,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
         <v>48061</v>
       </c>
@@ -19315,7 +19320,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
         <v>48092</v>
       </c>
@@ -19333,7 +19338,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
         <v>48122</v>
       </c>
@@ -19351,7 +19356,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
         <v>48153</v>
       </c>
@@ -19369,7 +19374,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
         <v>48183</v>
       </c>
@@ -19387,7 +19392,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
         <v>48214</v>
       </c>
@@ -19405,7 +19410,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
         <v>48245</v>
       </c>
@@ -19423,7 +19428,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
         <v>48274</v>
       </c>
@@ -19441,7 +19446,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
         <v>48305</v>
       </c>
@@ -19459,7 +19464,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
         <v>48335</v>
       </c>
@@ -19477,7 +19482,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
         <v>48366</v>
       </c>
@@ -19495,7 +19500,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
         <v>48396</v>
       </c>
@@ -19513,7 +19518,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
         <v>48427</v>
       </c>
@@ -19531,7 +19536,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
         <v>48458</v>
       </c>
@@ -19549,7 +19554,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
         <v>48488</v>
       </c>
@@ -19567,7 +19572,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
         <v>48519</v>
       </c>
@@ -19585,7 +19590,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
         <v>48549</v>
       </c>
@@ -19603,7 +19608,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
         <v>48580</v>
       </c>
@@ -19621,7 +19626,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
         <v>48611</v>
       </c>
@@ -19639,7 +19644,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
         <v>48639</v>
       </c>
@@ -19657,7 +19662,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
         <v>48670</v>
       </c>
@@ -19675,7 +19680,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
         <v>48700</v>
       </c>
@@ -19693,7 +19698,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
         <v>48731</v>
       </c>
@@ -19711,7 +19716,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
         <v>48761</v>
       </c>
@@ -19729,7 +19734,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
         <v>48792</v>
       </c>
@@ -19747,7 +19752,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
         <v>48823</v>
       </c>
@@ -19765,7 +19770,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
         <v>48853</v>
       </c>
@@ -19783,7 +19788,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
         <v>48884</v>
       </c>
@@ -19801,7 +19806,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
         <v>48914</v>
       </c>
@@ -19819,7 +19824,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
         <v>48945</v>
       </c>
@@ -19837,7 +19842,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
         <v>48976</v>
       </c>
@@ -19855,7 +19860,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
         <v>49004</v>
       </c>
@@ -19873,7 +19878,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
         <v>49035</v>
       </c>
@@ -19891,7 +19896,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
         <v>49065</v>
       </c>
@@ -19909,7 +19914,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
         <v>49096</v>
       </c>
@@ -19927,7 +19932,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
         <v>49126</v>
       </c>
@@ -19945,7 +19950,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
         <v>49157</v>
       </c>
@@ -19963,7 +19968,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
         <v>49188</v>
       </c>
@@ -19981,7 +19986,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
         <v>49218</v>
       </c>
@@ -19999,7 +20004,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
         <v>49249</v>
       </c>
@@ -20017,7 +20022,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
         <v>49279</v>
       </c>
@@ -20035,7 +20040,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
         <v>49310</v>
       </c>
@@ -20053,7 +20058,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
         <v>49341</v>
       </c>
@@ -20071,7 +20076,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
         <v>49369</v>
       </c>
@@ -20089,7 +20094,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
         <v>49400</v>
       </c>
@@ -20107,7 +20112,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
         <v>49430</v>
       </c>
@@ -20125,7 +20130,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
         <v>49461</v>
       </c>
@@ -20143,7 +20148,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
         <v>49491</v>
       </c>
@@ -20161,7 +20166,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
         <v>49522</v>
       </c>
@@ -20179,7 +20184,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
         <v>49553</v>
       </c>
@@ -20197,7 +20202,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
         <v>49583</v>
       </c>
@@ -20215,7 +20220,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
         <v>49614</v>
       </c>
@@ -20233,7 +20238,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
         <v>49644</v>
       </c>
@@ -20251,7 +20256,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
         <v>49675</v>
       </c>
@@ -20269,7 +20274,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
         <v>49706</v>
       </c>
@@ -20287,7 +20292,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
         <v>49735</v>
       </c>
@@ -20305,7 +20310,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
         <v>49766</v>
       </c>
@@ -20323,7 +20328,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
         <v>49796</v>
       </c>
@@ -20341,7 +20346,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
         <v>49827</v>
       </c>
@@ -20359,7 +20364,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
         <v>49857</v>
       </c>
@@ -20377,7 +20382,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
         <v>49888</v>
       </c>
@@ -20395,7 +20400,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
         <v>49919</v>
       </c>
@@ -20413,7 +20418,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
         <v>49949</v>
       </c>
@@ -20431,7 +20436,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
         <v>49980</v>
       </c>
@@ -20449,7 +20454,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40"/>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -20465,7 +20470,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40"/>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -20481,7 +20486,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40"/>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -20497,7 +20502,7 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40"/>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -20513,7 +20518,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40"/>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -20529,7 +20534,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="41"/>
       <c r="B818" s="15"/>
       <c r="C818" s="42"/>
@@ -20560,10 +20565,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20586,28 +20591,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -20620,7 +20625,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20649,7 +20654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -20671,17 +20676,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20702,7 +20707,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20729,7 +20734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20755,7 +20760,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20781,7 +20786,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20807,7 +20812,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20833,7 +20838,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20859,7 +20864,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20885,7 +20890,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20911,7 +20916,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20931,7 +20936,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20951,7 +20956,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20971,7 +20976,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20992,7 +20997,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21013,7 +21018,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21034,7 +21039,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21055,7 +21060,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21076,7 +21081,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21097,7 +21102,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21118,7 +21123,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21139,7 +21144,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21160,7 +21165,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21181,7 +21186,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21202,7 +21207,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21223,7 +21228,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21244,7 +21249,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21265,7 +21270,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21286,7 +21291,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21307,7 +21312,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21328,7 +21333,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21349,7 +21354,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21370,7 +21375,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21391,7 +21396,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21400,7 +21405,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21409,7 +21414,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21418,7 +21423,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21427,7 +21432,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21436,7 +21441,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21445,7 +21450,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21454,7 +21459,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21463,7 +21468,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21472,7 +21477,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21481,7 +21486,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21490,7 +21495,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21499,7 +21504,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21508,7 +21513,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21517,7 +21522,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21526,7 +21531,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21535,7 +21540,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21544,7 +21549,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21553,7 +21558,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21562,7 +21567,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21571,7 +21576,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21580,7 +21585,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21589,7 +21594,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21598,7 +21603,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21607,7 +21612,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21616,7 +21621,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21625,7 +21630,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21634,7 +21639,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21643,7 +21648,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21652,7 +21657,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1935,6 +1935,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/22,23/2023</t>
   </si>
 </sst>
 </file>
@@ -2971,7 +2977,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A640" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B650" sqref="B650"/>
+      <selection pane="bottomLeft" activeCell="D652" sqref="D652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3144,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.728999999999928</v>
+        <v>59.978999999999928</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3148,7 +3154,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.541999999999973</v>
+        <v>45.791999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17503,13 +17509,15 @@
       <c r="B649" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C649" s="13"/>
+      <c r="C649" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H649" s="39">
         <v>1</v>
@@ -17524,9 +17532,13 @@
       <c r="A650" s="40">
         <v>45047</v>
       </c>
-      <c r="B650" s="20"/>
+      <c r="B650" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="C650" s="13"/>
-      <c r="D650" s="39"/>
+      <c r="D650" s="39">
+        <v>2</v>
+      </c>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
       <c r="G650" s="13" t="str">
@@ -17536,7 +17548,9 @@
       <c r="H650" s="39"/>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
-      <c r="K650" s="20"/>
+      <c r="K650" s="20" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">

--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="578">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1941,6 +1941,12 @@
   </si>
   <si>
     <t>5/22,23/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>FILIAL O. 5/30/2023</t>
   </si>
 </sst>
 </file>
@@ -2644,7 +2650,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K818" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K819" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2973,11 +2979,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L818"/>
+  <dimension ref="A2:L819"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A640" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D652" sqref="D652"/>
+      <pane ySplit="4425" topLeftCell="A643" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K652" sqref="K652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17463,7 +17469,7 @@
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
-        <v>236</v>
+        <v>576</v>
       </c>
       <c r="C647" s="42"/>
       <c r="D647" s="39"/>
@@ -17553,10 +17559,10 @@
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B651" s="20"/>
+      <c r="A651" s="40"/>
+      <c r="B651" s="20" t="s">
+        <v>576</v>
+      </c>
       <c r="C651" s="13"/>
       <c r="D651" s="39"/>
       <c r="E651" s="9"/>
@@ -17568,11 +17574,13 @@
       <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="49" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -17590,7 +17598,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -17608,7 +17616,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -17626,7 +17634,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -17644,7 +17652,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17662,7 +17670,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17680,7 +17688,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17698,7 +17706,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17716,7 +17724,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17734,7 +17742,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17752,7 +17760,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17770,7 +17778,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17788,7 +17796,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17806,7 +17814,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17824,7 +17832,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17842,7 +17850,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17860,7 +17868,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17878,7 +17886,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17896,7 +17904,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17914,7 +17922,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17932,7 +17940,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17950,7 +17958,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17968,7 +17976,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17986,7 +17994,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18004,7 +18012,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18022,7 +18030,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18040,7 +18048,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18058,7 +18066,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18076,7 +18084,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18094,7 +18102,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18112,7 +18120,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18130,7 +18138,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18148,7 +18156,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18166,7 +18174,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18184,7 +18192,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18202,7 +18210,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18220,7 +18228,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18238,7 +18246,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18256,7 +18264,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18274,7 +18282,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18292,7 +18300,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18310,7 +18318,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18328,7 +18336,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18346,7 +18354,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18364,7 +18372,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18382,7 +18390,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18400,7 +18408,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18418,7 +18426,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18436,7 +18444,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18454,7 +18462,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18472,7 +18480,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18490,7 +18498,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18508,7 +18516,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18526,7 +18534,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18544,7 +18552,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18562,7 +18570,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18580,7 +18588,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18598,7 +18606,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18616,7 +18624,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18634,7 +18642,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18652,7 +18660,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18670,7 +18678,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18688,7 +18696,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18706,7 +18714,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18724,7 +18732,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18742,7 +18750,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18760,7 +18768,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18778,7 +18786,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18796,7 +18804,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18814,7 +18822,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18832,7 +18840,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18850,7 +18858,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -18868,7 +18876,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -18886,7 +18894,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -18904,7 +18912,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -18922,7 +18930,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -18940,7 +18948,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -18958,7 +18966,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -18976,7 +18984,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -18994,7 +19002,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19012,7 +19020,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19030,7 +19038,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19048,7 +19056,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19066,7 +19074,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19084,7 +19092,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19102,7 +19110,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19120,7 +19128,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19138,7 +19146,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19156,7 +19164,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -19174,7 +19182,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -19192,7 +19200,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -19210,7 +19218,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -19228,7 +19236,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -19246,7 +19254,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -19264,7 +19272,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -19282,7 +19290,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -19300,7 +19308,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -19318,7 +19326,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -19336,7 +19344,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -19354,7 +19362,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -19372,7 +19380,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -19390,7 +19398,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -19408,7 +19416,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -19426,7 +19434,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -19444,7 +19452,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -19462,7 +19470,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -19480,7 +19488,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -19498,7 +19506,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -19516,7 +19524,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -19534,7 +19542,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -19552,7 +19560,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -19570,7 +19578,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -19588,7 +19596,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -19606,7 +19614,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -19624,7 +19632,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -19642,7 +19650,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -19660,7 +19668,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -19678,7 +19686,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19696,7 +19704,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19714,7 +19722,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19732,7 +19740,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19750,7 +19758,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19768,7 +19776,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19786,7 +19794,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19804,7 +19812,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19822,7 +19830,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19840,7 +19848,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19858,7 +19866,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19876,7 +19884,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19894,7 +19902,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19912,7 +19920,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -19930,7 +19938,7 @@
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -19948,7 +19956,7 @@
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -19966,7 +19974,7 @@
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -19984,7 +19992,7 @@
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -20002,7 +20010,7 @@
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -20020,7 +20028,7 @@
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -20038,7 +20046,7 @@
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -20056,7 +20064,7 @@
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -20074,7 +20082,7 @@
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -20092,7 +20100,7 @@
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -20110,7 +20118,7 @@
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -20128,7 +20136,7 @@
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -20146,7 +20154,7 @@
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -20164,7 +20172,7 @@
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -20182,7 +20190,7 @@
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -20200,7 +20208,7 @@
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -20218,7 +20226,7 @@
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -20236,7 +20244,7 @@
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -20254,7 +20262,7 @@
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -20272,7 +20280,7 @@
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -20290,7 +20298,7 @@
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -20308,7 +20316,7 @@
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -20326,7 +20334,7 @@
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -20344,7 +20352,7 @@
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -20362,7 +20370,7 @@
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -20380,7 +20388,7 @@
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -20398,7 +20406,7 @@
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -20416,7 +20424,7 @@
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -20434,7 +20442,7 @@
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -20452,7 +20460,7 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -20469,7 +20477,9 @@
       <c r="K812" s="20"/>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A813" s="40"/>
+      <c r="A813" s="40">
+        <v>49980</v>
+      </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
       <c r="D813" s="39"/>
@@ -20549,20 +20559,36 @@
       <c r="K817" s="20"/>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A818" s="41"/>
-      <c r="B818" s="15"/>
-      <c r="C818" s="42"/>
-      <c r="D818" s="43"/>
+      <c r="A818" s="40"/>
+      <c r="B818" s="20"/>
+      <c r="C818" s="13"/>
+      <c r="D818" s="39"/>
       <c r="E818" s="9"/>
-      <c r="F818" s="15"/>
-      <c r="G818" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H818" s="43"/>
+      <c r="F818" s="20"/>
+      <c r="G818" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H818" s="39"/>
       <c r="I818" s="9"/>
-      <c r="J818" s="12"/>
-      <c r="K818" s="15"/>
+      <c r="J818" s="11"/>
+      <c r="K818" s="20"/>
+    </row>
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A819" s="41"/>
+      <c r="B819" s="15"/>
+      <c r="C819" s="42"/>
+      <c r="D819" s="43"/>
+      <c r="E819" s="9"/>
+      <c r="F819" s="15"/>
+      <c r="G819" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H819" s="43"/>
+      <c r="I819" s="9"/>
+      <c r="J819" s="12"/>
+      <c r="K819" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="578">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2983,7 +2983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A643" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K652" sqref="K652"/>
+      <selection pane="bottomLeft" activeCell="K653" sqref="K653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,7 +3160,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>45.791999999999973</v>
+        <v>44.791999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17582,7 +17582,9 @@
       <c r="A652" s="40">
         <v>45078</v>
       </c>
-      <c r="B652" s="20"/>
+      <c r="B652" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C652" s="13"/>
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
@@ -17591,10 +17593,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H652" s="39"/>
+      <c r="H652" s="39">
+        <v>1</v>
+      </c>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
-      <c r="K652" s="20"/>
+      <c r="K652" s="49">
+        <v>45093</v>
+      </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">

--- a/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
+++ b/REGULAR/TREASURY/AMORA, ELISA SUAYAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="578">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2983,7 +2983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A643" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K653" sqref="K653"/>
+      <selection pane="bottomLeft" activeCell="C653" sqref="C653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3150,7 +3150,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.978999999999928</v>
+        <v>62.478999999999928</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3160,7 +3160,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.791999999999973</v>
+        <v>47.291999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17541,15 +17541,17 @@
       <c r="B650" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C650" s="13"/>
+      <c r="C650" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D650" s="39">
         <v>2</v>
       </c>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
-      <c r="G650" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G650" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H650" s="39"/>
       <c r="I650" s="9"/>
@@ -17585,13 +17587,15 @@
       <c r="B652" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C652" s="13"/>
+      <c r="C652" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G652" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H652" s="39">
         <v>1</v>
@@ -17606,7 +17610,9 @@
       <c r="A653" s="40">
         <v>45108</v>
       </c>
-      <c r="B653" s="20"/>
+      <c r="B653" s="20" t="s">
+        <v>576</v>
+      </c>
       <c r="C653" s="13"/>
       <c r="D653" s="39"/>
       <c r="E653" s="9"/>
@@ -17618,7 +17624,9 @@
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
+      <c r="K653" s="49">
+        <v>45114</v>
+      </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
